--- a/report/Report_420015458.xlsx
+++ b/report/Report_420015458.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Code\02_VBA\18_Hana\Hana Code\hanaVBA\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{461BB1C6-07CA-4D8E-8F41-CDDF3A469244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{654C6E6B-E783-4EB4-B22B-62F231EB241B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2032DA8-E898-4C0B-A8B3-64B2FFD7AF1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B50F55E-CCE4-430B-9C68-630893A3C5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="rp" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
   </si>
   <si>
     <t>27/05/2022-_x000D_
-06/02/2022-_x000D_
+02/06/2022-_x000D_
 27/06/2022</t>
   </si>
   <si>
@@ -1261,7 +1261,7 @@
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1278,13 +1278,13 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="22"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <i/>
-      <sz val="13"/>
+      <sz val="16"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1312,14 +1312,28 @@
       <family val="1"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="VNI-Times"/>
     </font>
     <font>
-      <sz val="12"/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1328,8 +1342,31 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1504,7 +1541,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1520,12 +1557,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1540,19 +1577,35 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1561,13 +1614,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1575,21 +1635,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1605,13 +1659,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1628,20 +1682,11 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1649,17 +1694,11 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1668,24 +1707,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1703,9 +1736,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{0E16BE9F-09D8-4350-9D0C-430270AF3170}"/>
-    <cellStyle name="쉼표 2" xfId="3" xr:uid="{3DB5DA38-AE26-4BA5-864E-1AFFD8EB44AF}"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{6D8D392E-8CD9-4C65-981E-50790A4E4DF3}"/>
+    <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{088F3398-4385-42DC-9DD4-349D42D32A64}"/>
+    <cellStyle name="쉼표 2" xfId="3" xr:uid="{566DCDF4-BDF0-4ED6-8DC1-6EEC104C5A64}"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{74B45CFE-8F4F-413F-9E16-B65E3D5A4684}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2036,11 +2069,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62741E64-7061-4BBD-8104-EA35A54ADCAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733666DF-18FE-4183-B5B8-F03FF699A923}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K23" sqref="K23:M121"/>
     </sheetView>
   </sheetViews>
@@ -2054,14 +2087,14 @@
     <col min="6" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
     <col min="13" max="13" width="13.140625" customWidth="1"/>
     <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9.140625" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2115,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2127,7 +2160,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="4">
@@ -2147,14 +2180,15 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2165,35 +2199,35 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="11"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3">
+      <c r="L7" s="13"/>
+      <c r="M7" s="17">
         <v>12000</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="18" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="7" t="s">
@@ -2201,36 +2235,36 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="9"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="7" t="s">
+      <c r="L8" s="13"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25">
         <v>306274042930</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="9"/>
@@ -2238,17 +2272,17 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="7" t="s">
+      <c r="L9" s="13"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2259,17 +2293,17 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="7" t="s">
+      <c r="L10" s="13"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2280,12 +2314,12 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="7" t="s">
+      <c r="L11" s="13"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="O11" s="6"/>
@@ -2301,12 +2335,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="7" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="18" t="s">
         <v>13</v>
       </c>
       <c r="O12" s="6"/>
@@ -2322,12 +2356,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="7" t="s">
+      <c r="L13" s="13"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="18" t="s">
         <v>13</v>
       </c>
       <c r="O13" s="6"/>
@@ -2343,14 +2377,14 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="16">
+      <c r="L14" s="13"/>
+      <c r="M14" s="22">
         <v>6318.29</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="18" t="s">
         <v>13</v>
       </c>
       <c r="O14" s="6"/>
@@ -2366,14 +2400,14 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="16">
+      <c r="L15" s="13"/>
+      <c r="M15" s="22">
         <v>6318.29</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="18" t="s">
         <v>13</v>
       </c>
       <c r="O15" s="6"/>
@@ -2381,130 +2415,130 @@
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="4"/>
       <c r="F16" s="9"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="4" t="s">
+      <c r="J16" s="30"/>
+      <c r="K16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="3">
+      <c r="L16" s="32"/>
+      <c r="M16" s="17">
         <v>24530</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31" t="s">
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="33"/>
-      <c r="N17" s="34" t="s">
+      <c r="M17" s="37"/>
+      <c r="N17" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="31" t="s">
+      <c r="O17" s="40"/>
+      <c r="P17" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="31" t="s">
+      <c r="Q17" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="46" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="31" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="54" t="s">
+      <c r="K20" s="46"/>
+      <c r="L20" s="33" t="s">
         <v>43</v>
       </c>
       <c r="M20" s="55" t="s">
@@ -2516,8 +2550,8 @@
       <c r="O20" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
@@ -2528,4521 +2562,4521 @@
       <c r="F21" s="58"/>
       <c r="G21" s="59"/>
       <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="59"/>
       <c r="J21" s="59"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64">
+      <c r="K21" s="59"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+    </row>
+    <row r="22" spans="1:17" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="62">
         <v>1</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="62">
         <v>2</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="62">
         <v>3</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="62">
         <v>4</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="62">
         <v>5</v>
       </c>
-      <c r="F22" s="64">
+      <c r="F22" s="62">
         <v>6</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="62">
         <v>7</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="62">
         <v>8</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="62">
         <v>9</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="62">
         <v>10</v>
       </c>
-      <c r="K22" s="64">
+      <c r="K22" s="62">
         <v>11</v>
       </c>
-      <c r="L22" s="64">
+      <c r="L22" s="62">
         <v>12</v>
       </c>
-      <c r="M22" s="64">
+      <c r="M22" s="62">
         <v>13</v>
       </c>
-      <c r="N22" s="65">
+      <c r="N22" s="62">
         <v>14</v>
       </c>
-      <c r="O22" s="65">
+      <c r="O22" s="62">
         <v>15</v>
       </c>
-      <c r="P22" s="64">
+      <c r="P22" s="62">
         <v>16</v>
       </c>
-      <c r="Q22" s="64">
+      <c r="Q22" s="62">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="66">
+      <c r="A23" s="64">
         <v>1</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="64">
         <v>85332100</v>
       </c>
-      <c r="E23" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="66">
+      <c r="E23" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="64">
         <v>2.00038408333333</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="64">
         <v>24004.60899999996</v>
       </c>
-      <c r="H23" s="66">
+      <c r="H23" s="64">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="68" t="s">
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="67" t="s">
+      <c r="M23" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66">
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64">
         <v>65000</v>
       </c>
-      <c r="Q23" s="66">
+      <c r="Q23" s="64">
         <v>40995</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66">
+      <c r="A24" s="64">
         <v>2</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="64">
         <v>39199099</v>
       </c>
-      <c r="E24" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="66">
+      <c r="E24" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="64">
         <v>0.26333333333333298</v>
       </c>
-      <c r="G24" s="66">
+      <c r="G24" s="64">
         <v>3159.9999999999959</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="64">
         <v>6.025E-3</v>
       </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" s="68" t="s">
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="M24" s="67" t="s">
+      <c r="M24" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66">
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64">
         <v>50000</v>
       </c>
-      <c r="Q24" s="66">
+      <c r="Q24" s="64">
         <v>46840</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="66">
+      <c r="A25" s="64">
         <v>3</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="64">
         <v>35069100</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="64">
         <v>3.8</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="64">
         <v>45600</v>
       </c>
-      <c r="H25" s="66">
+      <c r="H25" s="64">
         <v>2.29E-2</v>
       </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" s="68" t="s">
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="M25" s="67" t="s">
+      <c r="M25" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66">
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64">
         <v>87500</v>
       </c>
-      <c r="Q25" s="66">
+      <c r="Q25" s="64">
         <v>41900</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="66">
+      <c r="A26" s="64">
         <v>4</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="64">
         <v>35069900</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="64">
         <v>0.7</v>
       </c>
-      <c r="G26" s="66">
+      <c r="G26" s="64">
         <v>8400</v>
       </c>
-      <c r="H26" s="66">
+      <c r="H26" s="64">
         <v>1.073E-2</v>
       </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67" t="s">
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="68" t="s">
+      <c r="L26" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="M26" s="69">
+      <c r="M26" s="67">
         <v>44845</v>
       </c>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66">
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64">
         <v>648000</v>
       </c>
-      <c r="Q26" s="66">
+      <c r="Q26" s="64">
         <v>639600</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="66">
+      <c r="A27" s="64">
         <v>5</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="64">
         <v>35069100</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="66">
+      <c r="F27" s="64">
         <v>0.1</v>
       </c>
-      <c r="G27" s="66">
+      <c r="G27" s="64">
         <v>1200</v>
       </c>
-      <c r="H27" s="66">
+      <c r="H27" s="64">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="68" t="s">
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="M27" s="67" t="s">
+      <c r="M27" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66">
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64">
         <v>3300</v>
       </c>
-      <c r="Q27" s="66">
+      <c r="Q27" s="64">
         <v>2100</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66">
+      <c r="A28" s="64">
         <v>6</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="64">
         <v>85332100</v>
       </c>
-      <c r="E28" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="66">
+      <c r="E28" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="64">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="G28" s="66">
+      <c r="G28" s="64">
         <v>500.0000000000004</v>
       </c>
-      <c r="H28" s="66">
+      <c r="H28" s="64">
         <v>4.1199999999999999E-4</v>
       </c>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="68" t="s">
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="M28" s="69">
+      <c r="M28" s="67">
         <v>44298</v>
       </c>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66">
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64">
         <v>210000</v>
       </c>
-      <c r="Q28" s="66">
+      <c r="Q28" s="64">
         <v>209500</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66">
+      <c r="A29" s="64">
         <v>7</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="64">
         <v>85332100</v>
       </c>
-      <c r="E29" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="66">
+      <c r="E29" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="64">
         <v>1</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="64">
         <v>12000</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H29" s="64">
         <v>3.8999999999999999E-4</v>
       </c>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="68" t="s">
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="M29" s="67" t="s">
+      <c r="M29" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66">
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64">
         <v>15000</v>
       </c>
-      <c r="Q29" s="66">
+      <c r="Q29" s="64">
         <v>3000</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66">
+      <c r="A30" s="64">
         <v>8</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="64">
         <v>85411000</v>
       </c>
-      <c r="E30" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="66">
+      <c r="E30" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="64">
         <v>8.20833333333333E-2</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="64">
         <v>984.99999999999955</v>
       </c>
-      <c r="H30" s="66">
+      <c r="H30" s="64">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L30" s="68" t="s">
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="M30" s="67" t="s">
+      <c r="M30" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66">
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64">
         <v>3000</v>
       </c>
-      <c r="Q30" s="66">
+      <c r="Q30" s="64">
         <v>2015</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="66">
+      <c r="A31" s="64">
         <v>9</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="66">
+      <c r="D31" s="64">
         <v>85411000</v>
       </c>
-      <c r="E31" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="66">
+      <c r="E31" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="64">
         <v>6</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="64">
         <v>72000</v>
       </c>
-      <c r="H31" s="66">
+      <c r="H31" s="64">
         <v>1.3050000000000001E-2</v>
       </c>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" s="68" t="s">
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="M31" s="67" t="s">
+      <c r="M31" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66">
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64">
         <v>155100</v>
       </c>
-      <c r="Q31" s="66">
+      <c r="Q31" s="64">
         <v>83100</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66">
+      <c r="A32" s="64">
         <v>10</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="66">
+      <c r="D32" s="64">
         <v>85332100</v>
       </c>
-      <c r="E32" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="66">
+      <c r="E32" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="64">
         <v>2</v>
       </c>
-      <c r="G32" s="66">
+      <c r="G32" s="64">
         <v>24000</v>
       </c>
-      <c r="H32" s="66">
+      <c r="H32" s="64">
         <v>5.9199999999999997E-4</v>
       </c>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L32" s="68" t="s">
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="M32" s="67" t="s">
+      <c r="M32" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66">
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64">
         <v>65000</v>
       </c>
-      <c r="Q32" s="66">
+      <c r="Q32" s="64">
         <v>41000</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66">
+      <c r="A33" s="64">
         <v>11</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="66">
+      <c r="D33" s="64">
         <v>85332100</v>
       </c>
-      <c r="E33" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="66">
+      <c r="E33" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="64">
         <v>3</v>
       </c>
-      <c r="G33" s="66">
+      <c r="G33" s="64">
         <v>36000</v>
       </c>
-      <c r="H33" s="66">
+      <c r="H33" s="64">
         <v>4.8799999999999999E-4</v>
       </c>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" s="68" t="s">
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="M33" s="67" t="s">
+      <c r="M33" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66">
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64">
         <v>95000</v>
       </c>
-      <c r="Q33" s="66">
+      <c r="Q33" s="64">
         <v>59000</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66">
+      <c r="A34" s="64">
         <v>12</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="66">
+      <c r="D34" s="64">
         <v>85332100</v>
       </c>
-      <c r="E34" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="66">
+      <c r="E34" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="64">
         <v>2</v>
       </c>
-      <c r="G34" s="66">
+      <c r="G34" s="64">
         <v>24000</v>
       </c>
-      <c r="H34" s="66">
+      <c r="H34" s="64">
         <v>1.3339999999999999E-3</v>
       </c>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" s="68" t="s">
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="M34" s="67" t="s">
+      <c r="M34" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66">
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64">
         <v>60000</v>
       </c>
-      <c r="Q34" s="66">
+      <c r="Q34" s="64">
         <v>36000</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66">
+      <c r="A35" s="64">
         <v>13</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="66">
+      <c r="D35" s="64">
         <v>85332100</v>
       </c>
-      <c r="E35" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="66">
+      <c r="E35" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="64">
         <v>5</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="64">
         <v>60000</v>
       </c>
-      <c r="H35" s="66">
+      <c r="H35" s="64">
         <v>6.8499999999999995E-4</v>
       </c>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35" s="68" t="s">
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="M35" s="67" t="s">
+      <c r="M35" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66">
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64">
         <v>265000</v>
       </c>
-      <c r="Q35" s="66">
+      <c r="Q35" s="64">
         <v>205000</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66">
+      <c r="A36" s="64">
         <v>14</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="66">
+      <c r="D36" s="64">
         <v>85332100</v>
       </c>
-      <c r="E36" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="66">
+      <c r="E36" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="64">
         <v>0.37076924999999999</v>
       </c>
-      <c r="G36" s="66">
+      <c r="G36" s="64">
         <v>4449.2309999999998</v>
       </c>
-      <c r="H36" s="66">
+      <c r="H36" s="64">
         <v>9.3620000000000005E-3</v>
       </c>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L36" s="68" t="s">
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="M36" s="67" t="s">
+      <c r="M36" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66">
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64">
         <v>5000</v>
       </c>
-      <c r="Q36" s="66">
+      <c r="Q36" s="64">
         <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66">
+      <c r="A37" s="64">
         <v>15</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="66">
+      <c r="D37" s="64">
         <v>85332100</v>
       </c>
-      <c r="E37" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="66">
+      <c r="E37" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="64">
         <v>1</v>
       </c>
-      <c r="G37" s="66">
+      <c r="G37" s="64">
         <v>12000</v>
       </c>
-      <c r="H37" s="66">
+      <c r="H37" s="64">
         <v>4.9299999999999995E-4</v>
       </c>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" s="68" t="s">
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="M37" s="67" t="s">
+      <c r="M37" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66">
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64">
         <v>15000</v>
       </c>
-      <c r="Q37" s="66">
+      <c r="Q37" s="64">
         <v>3000</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66">
+      <c r="A38" s="64">
         <v>16</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="66">
+      <c r="D38" s="64">
         <v>85322400</v>
       </c>
-      <c r="E38" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="66">
+      <c r="E38" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="64">
         <v>0.136376416666667</v>
       </c>
-      <c r="G38" s="66">
+      <c r="G38" s="64">
         <v>1636.5170000000039</v>
       </c>
-      <c r="H38" s="66">
+      <c r="H38" s="64">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="68" t="s">
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="M38" s="67" t="s">
+      <c r="M38" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66">
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64">
         <v>4000</v>
       </c>
-      <c r="Q38" s="66">
+      <c r="Q38" s="64">
         <v>2363</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66">
+      <c r="A39" s="64">
         <v>17</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="66">
+      <c r="D39" s="64">
         <v>85322400</v>
       </c>
-      <c r="E39" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="66">
+      <c r="E39" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="64">
         <v>3</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="64">
         <v>36000</v>
       </c>
-      <c r="H39" s="66">
+      <c r="H39" s="64">
         <v>6.3249999999999999E-3</v>
       </c>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L39" s="68" t="s">
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="M39" s="67" t="s">
+      <c r="M39" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66">
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64">
         <v>96000</v>
       </c>
-      <c r="Q39" s="66">
+      <c r="Q39" s="64">
         <v>60000</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66">
+      <c r="A40" s="64">
         <v>18</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="66">
+      <c r="D40" s="64">
         <v>85322100</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="64">
         <v>1</v>
       </c>
-      <c r="G40" s="66">
+      <c r="G40" s="64">
         <v>12000</v>
       </c>
-      <c r="H40" s="66">
+      <c r="H40" s="64">
         <v>1181</v>
       </c>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="67" t="s">
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="68" t="s">
+      <c r="L40" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="M40" s="67" t="s">
+      <c r="M40" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66">
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64">
         <v>162000</v>
       </c>
-      <c r="Q40" s="66">
+      <c r="Q40" s="64">
         <v>150000</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66">
+      <c r="A41" s="64">
         <v>19</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="66">
+      <c r="D41" s="64">
         <v>85322400</v>
       </c>
-      <c r="E41" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="66">
+      <c r="E41" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="64">
         <v>0.26333333333333298</v>
       </c>
-      <c r="G41" s="66">
+      <c r="G41" s="64">
         <v>3159.9999999999959</v>
       </c>
-      <c r="H41" s="66">
+      <c r="H41" s="64">
         <v>1.1850000000000001E-3</v>
       </c>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L41" s="68" t="s">
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L41" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="M41" s="67" t="s">
+      <c r="M41" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66">
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64">
         <v>4000</v>
       </c>
-      <c r="Q41" s="66">
+      <c r="Q41" s="64">
         <v>840</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66">
+      <c r="A42" s="64">
         <v>20</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="66">
+      <c r="D42" s="64">
         <v>85411000</v>
       </c>
-      <c r="E42" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="66">
+      <c r="E42" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="64">
         <v>1</v>
       </c>
-      <c r="G42" s="66">
+      <c r="G42" s="64">
         <v>12000</v>
       </c>
-      <c r="H42" s="66">
+      <c r="H42" s="64">
         <v>7.1329999999999996E-3</v>
       </c>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L42" s="68" t="s">
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="M42" s="67" t="s">
+      <c r="M42" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66">
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64">
         <v>33000</v>
       </c>
-      <c r="Q42" s="66">
+      <c r="Q42" s="64">
         <v>21000</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66">
+      <c r="A43" s="64">
         <v>21</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="66">
+      <c r="D43" s="64">
         <v>85412100</v>
       </c>
-      <c r="E43" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="66">
+      <c r="E43" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="64">
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="G43" s="66">
+      <c r="G43" s="64">
         <v>795</v>
       </c>
-      <c r="H43" s="66">
+      <c r="H43" s="64">
         <v>4.8759999999999998E-2</v>
       </c>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L43" s="68" t="s">
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="M43" s="67" t="s">
+      <c r="M43" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="66">
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64">
         <v>1330</v>
       </c>
-      <c r="Q43" s="66">
+      <c r="Q43" s="64">
         <v>535</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66">
+      <c r="A44" s="64">
         <v>22</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="66">
+      <c r="D44" s="64">
         <v>85412100</v>
       </c>
-      <c r="E44" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="66">
+      <c r="E44" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="64">
         <v>0.14874999999999999</v>
       </c>
-      <c r="G44" s="66">
+      <c r="G44" s="64">
         <v>1785</v>
       </c>
-      <c r="H44" s="66">
+      <c r="H44" s="64">
         <v>5.5030000000000001E-3</v>
       </c>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L44" s="68" t="s">
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L44" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="M44" s="67" t="s">
+      <c r="M44" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66">
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64">
         <v>3330</v>
       </c>
-      <c r="Q44" s="66">
+      <c r="Q44" s="64">
         <v>1545</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66">
+      <c r="A45" s="64">
         <v>23</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="66">
+      <c r="D45" s="64">
         <v>85059090</v>
       </c>
-      <c r="E45" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="66">
+      <c r="E45" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="64">
         <v>4.0461533333333302</v>
       </c>
-      <c r="G45" s="66">
+      <c r="G45" s="64">
         <v>48553.83999999996</v>
       </c>
-      <c r="H45" s="66">
+      <c r="H45" s="64">
         <v>1.52E-2</v>
       </c>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L45" s="68" t="s">
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="M45" s="67" t="s">
+      <c r="M45" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66">
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64">
         <v>1000000</v>
       </c>
-      <c r="Q45" s="66">
+      <c r="Q45" s="64">
         <v>951446</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="66">
+      <c r="A46" s="64">
         <v>24</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="66">
+      <c r="D46" s="64">
         <v>85423100</v>
       </c>
-      <c r="E46" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="66">
+      <c r="E46" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="64">
         <v>0.24991666666666701</v>
       </c>
-      <c r="G46" s="66">
+      <c r="G46" s="64">
         <v>2999.0000000000041</v>
       </c>
-      <c r="H46" s="66">
+      <c r="H46" s="64">
         <v>0.13184499999999999</v>
       </c>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L46" s="68" t="s">
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L46" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="M46" s="67" t="s">
+      <c r="M46" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="66">
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64">
         <v>6000</v>
       </c>
-      <c r="Q46" s="66">
+      <c r="Q46" s="64">
         <v>3001</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="66">
+      <c r="A47" s="64">
         <v>25</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="66">
+      <c r="D47" s="64">
         <v>85361099</v>
       </c>
-      <c r="E47" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="66">
+      <c r="E47" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="64">
         <v>1</v>
       </c>
-      <c r="G47" s="66">
+      <c r="G47" s="64">
         <v>12000</v>
       </c>
-      <c r="H47" s="66">
+      <c r="H47" s="64">
         <v>5.5083E-2</v>
       </c>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="67" t="s">
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="L47" s="68" t="s">
+      <c r="L47" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="M47" s="67" t="s">
+      <c r="M47" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="66">
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64">
         <v>36000</v>
       </c>
-      <c r="Q47" s="66">
+      <c r="Q47" s="64">
         <v>24000</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="66">
+      <c r="A48" s="64">
         <v>26</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="66">
+      <c r="D48" s="64">
         <v>85334000</v>
       </c>
-      <c r="E48" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="66">
+      <c r="E48" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="64">
         <v>1</v>
       </c>
-      <c r="G48" s="66">
+      <c r="G48" s="64">
         <v>12000</v>
       </c>
-      <c r="H48" s="66">
+      <c r="H48" s="64">
         <v>1.1956E-2</v>
       </c>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L48" s="68" t="s">
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="M48" s="67" t="s">
+      <c r="M48" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="66">
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="64">
         <v>12000</v>
       </c>
-      <c r="Q48" s="66">
+      <c r="Q48" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66">
+      <c r="A49" s="64">
         <v>27</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="66">
+      <c r="D49" s="64">
         <v>85340020</v>
       </c>
-      <c r="E49" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="66">
+      <c r="E49" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="64">
         <v>1</v>
       </c>
-      <c r="G49" s="66">
+      <c r="G49" s="64">
         <v>12000</v>
       </c>
-      <c r="H49" s="66">
+      <c r="H49" s="64">
         <v>0.60270000000000001</v>
       </c>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L49" s="68" t="s">
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L49" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="M49" s="67" t="s">
+      <c r="M49" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="N49" s="66"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="66">
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64">
         <v>30708</v>
       </c>
-      <c r="Q49" s="66">
+      <c r="Q49" s="64">
         <v>18708</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66">
+      <c r="A50" s="64">
         <v>28</v>
       </c>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="66">
+      <c r="D50" s="64">
         <v>85366932</v>
       </c>
-      <c r="E50" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="66">
+      <c r="E50" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="64">
         <v>2.1666666666666701</v>
       </c>
-      <c r="G50" s="66">
+      <c r="G50" s="64">
         <v>26000.00000000004</v>
       </c>
-      <c r="H50" s="66">
+      <c r="H50" s="64">
         <v>6.43E-3</v>
       </c>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L50" s="68" t="s">
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="M50" s="67" t="s">
+      <c r="M50" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="66">
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="64">
         <v>35754</v>
       </c>
-      <c r="Q50" s="66">
+      <c r="Q50" s="64">
         <v>9754</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66">
+      <c r="A51" s="64">
         <v>29</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="66">
+      <c r="D51" s="64">
         <v>35069100</v>
       </c>
-      <c r="E51" s="66" t="s">
+      <c r="E51" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="F51" s="66">
+      <c r="F51" s="64">
         <v>3.2</v>
       </c>
-      <c r="G51" s="66">
+      <c r="G51" s="64">
         <v>38400</v>
       </c>
-      <c r="H51" s="66">
+      <c r="H51" s="64">
         <v>792</v>
       </c>
-      <c r="I51" s="66"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="67" t="s">
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L51" s="68" t="s">
+      <c r="L51" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="M51" s="67" t="s">
+      <c r="M51" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66">
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64">
         <v>300000</v>
       </c>
-      <c r="Q51" s="66">
+      <c r="Q51" s="64">
         <v>261600</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="66">
+      <c r="A52" s="64">
         <v>30</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="67" t="s">
+      <c r="C52" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="66">
+      <c r="D52" s="64">
         <v>38140000</v>
       </c>
-      <c r="E52" s="66" t="s">
+      <c r="E52" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="F52" s="66">
+      <c r="F52" s="64">
         <v>2</v>
       </c>
-      <c r="G52" s="66">
+      <c r="G52" s="64">
         <v>24000</v>
       </c>
-      <c r="H52" s="66">
+      <c r="H52" s="64">
         <v>726</v>
       </c>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="67" t="s">
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L52" s="68" t="s">
+      <c r="L52" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="M52" s="67" t="s">
+      <c r="M52" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="66">
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64">
         <v>42000</v>
       </c>
-      <c r="Q52" s="66">
+      <c r="Q52" s="64">
         <v>18000</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66">
+      <c r="A53" s="64">
         <v>31</v>
       </c>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="66">
+      <c r="D53" s="64">
         <v>85412900</v>
       </c>
-      <c r="E53" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="66">
+      <c r="E53" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="64">
         <v>6</v>
       </c>
-      <c r="G53" s="66">
+      <c r="G53" s="64">
         <v>72000</v>
       </c>
-      <c r="H53" s="66">
+      <c r="H53" s="64">
         <v>0.25140000000000001</v>
       </c>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L53" s="68" t="s">
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="M53" s="67" t="s">
+      <c r="M53" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="66">
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64">
         <v>152400</v>
       </c>
-      <c r="Q53" s="66">
+      <c r="Q53" s="64">
         <v>80400</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="66">
+      <c r="A54" s="64">
         <v>32</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="66">
+      <c r="D54" s="64">
         <v>85365099</v>
       </c>
-      <c r="E54" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="66">
+      <c r="E54" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="64">
         <v>1</v>
       </c>
-      <c r="G54" s="66">
+      <c r="G54" s="64">
         <v>12000</v>
       </c>
-      <c r="H54" s="66">
+      <c r="H54" s="64">
         <v>0.57030599999999998</v>
       </c>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L54" s="68" t="s">
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="M54" s="67" t="s">
+      <c r="M54" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="N54" s="66"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="66">
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64">
         <v>39920</v>
       </c>
-      <c r="Q54" s="66">
+      <c r="Q54" s="64">
         <v>27920</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66">
+      <c r="A55" s="64">
         <v>33</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="66">
+      <c r="D55" s="64">
         <v>85444294</v>
       </c>
-      <c r="E55" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="66">
+      <c r="E55" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="64">
         <v>1</v>
       </c>
-      <c r="G55" s="66">
+      <c r="G55" s="64">
         <v>12000</v>
       </c>
-      <c r="H55" s="66">
+      <c r="H55" s="64">
         <v>0.10631599999999999</v>
       </c>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L55" s="68" t="s">
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L55" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="M55" s="67" t="s">
+      <c r="M55" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="N55" s="66"/>
-      <c r="O55" s="66"/>
-      <c r="P55" s="66">
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64">
         <v>31771</v>
       </c>
-      <c r="Q55" s="66">
+      <c r="Q55" s="64">
         <v>19771</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="66">
+      <c r="A56" s="64">
         <v>34</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="66">
+      <c r="D56" s="64">
         <v>85444294</v>
       </c>
-      <c r="E56" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="66">
+      <c r="E56" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="64">
         <v>1</v>
       </c>
-      <c r="G56" s="66">
+      <c r="G56" s="64">
         <v>12000</v>
       </c>
-      <c r="H56" s="66">
+      <c r="H56" s="64">
         <v>0.19525300000000001</v>
       </c>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L56" s="68" t="s">
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L56" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="M56" s="67" t="s">
+      <c r="M56" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66"/>
-      <c r="P56" s="66">
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
+      <c r="P56" s="64">
         <v>20299</v>
       </c>
-      <c r="Q56" s="66">
+      <c r="Q56" s="64">
         <v>8299</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66">
+      <c r="A57" s="64">
         <v>35</v>
       </c>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="66">
+      <c r="D57" s="64">
         <v>85444297</v>
       </c>
-      <c r="E57" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="66">
+      <c r="E57" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="64">
         <v>1</v>
       </c>
-      <c r="G57" s="66">
+      <c r="G57" s="64">
         <v>12000</v>
       </c>
-      <c r="H57" s="66">
+      <c r="H57" s="64">
         <v>1.34</v>
       </c>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L57" s="68" t="s">
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L57" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="M57" s="67" t="s">
+      <c r="M57" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="N57" s="66"/>
-      <c r="O57" s="66"/>
-      <c r="P57" s="66">
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64">
         <v>29148</v>
       </c>
-      <c r="Q57" s="66">
+      <c r="Q57" s="64">
         <v>17148</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66">
+      <c r="A58" s="64">
         <v>36</v>
       </c>
-      <c r="B58" s="66" t="s">
+      <c r="B58" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="67" t="s">
+      <c r="C58" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="66">
+      <c r="D58" s="64">
         <v>76169990</v>
       </c>
-      <c r="E58" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" s="66">
+      <c r="E58" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="64">
         <v>1</v>
       </c>
-      <c r="G58" s="66">
+      <c r="G58" s="64">
         <v>12000</v>
       </c>
-      <c r="H58" s="66">
+      <c r="H58" s="64">
         <v>0.55159999999999998</v>
       </c>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L58" s="68" t="s">
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L58" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="M58" s="67" t="s">
+      <c r="M58" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="N58" s="66"/>
-      <c r="O58" s="66"/>
-      <c r="P58" s="66">
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64">
         <v>54735</v>
       </c>
-      <c r="Q58" s="66">
+      <c r="Q58" s="64">
         <v>42735</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="66">
+      <c r="A59" s="64">
         <v>37</v>
       </c>
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="67" t="s">
+      <c r="C59" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="66">
+      <c r="D59" s="64">
         <v>441520</v>
       </c>
-      <c r="E59" s="66" t="s">
+      <c r="E59" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F59" s="66">
+      <c r="F59" s="64">
         <v>2E-3</v>
       </c>
-      <c r="G59" s="66">
+      <c r="G59" s="64">
         <v>24</v>
       </c>
-      <c r="H59" s="66">
+      <c r="H59" s="64">
         <v>1000000</v>
       </c>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="67" t="s">
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L59" s="68" t="s">
+      <c r="L59" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="M59" s="67" t="s">
+      <c r="M59" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="66">
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64">
         <v>100</v>
       </c>
-      <c r="Q59" s="66">
+      <c r="Q59" s="64">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66">
+      <c r="A60" s="64">
         <v>38</v>
       </c>
-      <c r="B60" s="66" t="s">
+      <c r="B60" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="D60" s="66">
+      <c r="D60" s="64">
         <v>482390</v>
       </c>
-      <c r="E60" s="66" t="s">
+      <c r="E60" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F60" s="66">
+      <c r="F60" s="64">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G60" s="66">
+      <c r="G60" s="64">
         <v>84</v>
       </c>
-      <c r="H60" s="66">
+      <c r="H60" s="64">
         <v>6010</v>
       </c>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="67" t="s">
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L60" s="68" t="s">
+      <c r="L60" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="M60" s="67" t="s">
+      <c r="M60" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66">
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64">
         <v>200</v>
       </c>
-      <c r="Q60" s="66">
+      <c r="Q60" s="64">
         <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="66">
+      <c r="A61" s="64">
         <v>39</v>
       </c>
-      <c r="B61" s="66" t="s">
+      <c r="B61" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="67" t="s">
+      <c r="C61" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="66">
+      <c r="D61" s="64">
         <v>482390</v>
       </c>
-      <c r="E61" s="66" t="s">
+      <c r="E61" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F61" s="66">
+      <c r="F61" s="64">
         <v>1.4E-2</v>
       </c>
-      <c r="G61" s="66">
+      <c r="G61" s="64">
         <v>168</v>
       </c>
-      <c r="H61" s="66">
+      <c r="H61" s="64">
         <v>7429</v>
       </c>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="67" t="s">
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L61" s="68" t="s">
+      <c r="L61" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="M61" s="67" t="s">
+      <c r="M61" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66">
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64">
         <v>500</v>
       </c>
-      <c r="Q61" s="66">
+      <c r="Q61" s="64">
         <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="66">
+      <c r="A62" s="64">
         <v>40</v>
       </c>
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="67" t="s">
+      <c r="C62" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="66">
+      <c r="D62" s="64">
         <v>48191000</v>
       </c>
-      <c r="E62" s="66" t="s">
+      <c r="E62" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F62" s="66">
+      <c r="F62" s="64">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G62" s="66">
+      <c r="G62" s="64">
         <v>408.00000000000006</v>
       </c>
-      <c r="H62" s="66">
+      <c r="H62" s="64">
         <v>18770</v>
       </c>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="67" t="s">
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L62" s="68" t="s">
+      <c r="L62" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="M62" s="67" t="s">
+      <c r="M62" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
-      <c r="P62" s="66">
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64">
         <v>766</v>
       </c>
-      <c r="Q62" s="66">
+      <c r="Q62" s="64">
         <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="66">
+      <c r="A63" s="64">
         <v>41</v>
       </c>
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="66">
+      <c r="D63" s="64">
         <v>392190</v>
       </c>
-      <c r="E63" s="66" t="s">
+      <c r="E63" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="F63" s="66">
+      <c r="F63" s="64">
         <v>1E-3</v>
       </c>
-      <c r="G63" s="66">
+      <c r="G63" s="64">
         <v>12</v>
       </c>
-      <c r="H63" s="66">
+      <c r="H63" s="64">
         <v>80000</v>
       </c>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="67" t="s">
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L63" s="68" t="s">
+      <c r="L63" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="M63" s="67" t="s">
+      <c r="M63" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
-      <c r="P63" s="66">
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64">
         <v>100</v>
       </c>
-      <c r="Q63" s="66">
+      <c r="Q63" s="64">
         <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="66">
+      <c r="A64" s="64">
         <v>42</v>
       </c>
-      <c r="B64" s="66" t="s">
+      <c r="B64" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="D64" s="66">
+      <c r="D64" s="64">
         <v>38249999</v>
       </c>
-      <c r="E64" s="66" t="s">
+      <c r="E64" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F64" s="66">
+      <c r="F64" s="64">
         <v>0.13400000000000001</v>
       </c>
-      <c r="G64" s="66">
+      <c r="G64" s="64">
         <v>1608</v>
       </c>
-      <c r="H64" s="66">
+      <c r="H64" s="64">
         <v>55000</v>
       </c>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="67" t="s">
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L64" s="68" t="s">
+      <c r="L64" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="M64" s="67" t="s">
+      <c r="M64" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="66">
+      <c r="N64" s="64"/>
+      <c r="O64" s="64"/>
+      <c r="P64" s="64">
         <v>10000</v>
       </c>
-      <c r="Q64" s="66">
+      <c r="Q64" s="64">
         <v>8392</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="66">
+      <c r="A65" s="64">
         <v>43</v>
       </c>
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="67" t="s">
+      <c r="C65" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="66">
+      <c r="D65" s="64">
         <v>482390</v>
       </c>
-      <c r="E65" s="66" t="s">
+      <c r="E65" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F65" s="66">
+      <c r="F65" s="64">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G65" s="66">
+      <c r="G65" s="64">
         <v>408.00000000000006</v>
       </c>
-      <c r="H65" s="66">
+      <c r="H65" s="64">
         <v>3130</v>
       </c>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="67" t="s">
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L65" s="68" t="s">
+      <c r="L65" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="M65" s="67" t="s">
+      <c r="M65" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66">
+      <c r="N65" s="64"/>
+      <c r="O65" s="64"/>
+      <c r="P65" s="64">
         <v>553</v>
       </c>
-      <c r="Q65" s="66">
+      <c r="Q65" s="64">
         <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="66">
+      <c r="A66" s="64">
         <v>44</v>
       </c>
-      <c r="B66" s="66" t="s">
+      <c r="B66" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="67" t="s">
+      <c r="C66" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="D66" s="66">
+      <c r="D66" s="64">
         <v>48239099</v>
       </c>
-      <c r="E66" s="66" t="s">
+      <c r="E66" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="F66" s="66">
+      <c r="F66" s="64">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G66" s="66">
+      <c r="G66" s="64">
         <v>804</v>
       </c>
-      <c r="H66" s="66">
+      <c r="H66" s="64">
         <v>11480</v>
       </c>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="67" t="s">
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L66" s="68" t="s">
+      <c r="L66" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="M66" s="67" t="s">
+      <c r="M66" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="66">
+      <c r="N66" s="64"/>
+      <c r="O66" s="64"/>
+      <c r="P66" s="64">
         <v>285</v>
       </c>
-      <c r="Q66" s="66">
+      <c r="Q66" s="64">
         <v>-519</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="66">
+      <c r="A67" s="64">
         <v>45</v>
       </c>
-      <c r="B67" s="66" t="s">
+      <c r="B67" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="C67" s="67" t="s">
+      <c r="C67" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="66">
+      <c r="D67" s="64">
         <v>392329</v>
       </c>
-      <c r="E67" s="66" t="s">
+      <c r="E67" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="F67" s="66">
+      <c r="F67" s="64">
         <v>1.00769333333333</v>
       </c>
-      <c r="G67" s="66">
+      <c r="G67" s="64">
         <v>12092.31999999996</v>
       </c>
-      <c r="H67" s="66">
+      <c r="H67" s="64">
         <v>257</v>
       </c>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="67" t="s">
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L67" s="68" t="s">
+      <c r="L67" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="M67" s="67" t="s">
+      <c r="M67" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="66">
+      <c r="N67" s="64"/>
+      <c r="O67" s="64"/>
+      <c r="P67" s="64">
         <v>12600</v>
       </c>
-      <c r="Q67" s="66">
+      <c r="Q67" s="64">
         <v>508</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="66">
+      <c r="A68" s="64">
         <v>46</v>
       </c>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="D68" s="66">
+      <c r="D68" s="64">
         <v>392329</v>
       </c>
-      <c r="E68" s="66" t="s">
+      <c r="E68" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F68" s="66">
+      <c r="F68" s="64">
         <v>1</v>
       </c>
-      <c r="G68" s="66">
+      <c r="G68" s="64">
         <v>12000</v>
       </c>
-      <c r="H68" s="66">
+      <c r="H68" s="64">
         <v>362.22556400000002</v>
       </c>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="67" t="s">
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="L68" s="68" t="s">
+      <c r="L68" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="M68" s="67" t="s">
+      <c r="M68" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66">
+      <c r="N68" s="64"/>
+      <c r="O68" s="64"/>
+      <c r="P68" s="64">
         <v>13385</v>
       </c>
-      <c r="Q68" s="66">
+      <c r="Q68" s="64">
         <v>1385</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="66">
-        <v>47</v>
-      </c>
-      <c r="B69" s="66">
+      <c r="A69" s="64">
+        <v>47</v>
+      </c>
+      <c r="B69" s="64">
         <v>120105243</v>
       </c>
-      <c r="C69" s="67" t="s">
+      <c r="C69" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="D69" s="66">
+      <c r="D69" s="64">
         <v>85332100</v>
       </c>
-      <c r="E69" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="66">
+      <c r="E69" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="64">
         <v>0.62923074999999995</v>
       </c>
-      <c r="G69" s="66">
+      <c r="G69" s="64">
         <v>7550.7689999999993</v>
       </c>
-      <c r="H69" s="66">
+      <c r="H69" s="64">
         <v>1.076E-2</v>
       </c>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L69" s="68" t="s">
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L69" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="M69" s="67" t="s">
+      <c r="M69" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="N69" s="66"/>
-      <c r="O69" s="66"/>
-      <c r="P69" s="66">
+      <c r="N69" s="64"/>
+      <c r="O69" s="64"/>
+      <c r="P69" s="64">
         <v>15000</v>
       </c>
-      <c r="Q69" s="66">
+      <c r="Q69" s="64">
         <v>7449</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="66">
-        <v>48</v>
-      </c>
-      <c r="B70" s="66">
+      <c r="A70" s="64">
+        <v>48</v>
+      </c>
+      <c r="B70" s="64">
         <v>121003694</v>
       </c>
-      <c r="C70" s="67" t="s">
+      <c r="C70" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="D70" s="66">
+      <c r="D70" s="64">
         <v>85423100</v>
       </c>
-      <c r="E70" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="66">
+      <c r="E70" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="64">
         <v>1.00038408333333</v>
       </c>
-      <c r="G70" s="66">
+      <c r="G70" s="64">
         <v>12004.60899999996</v>
       </c>
-      <c r="H70" s="66">
+      <c r="H70" s="64">
         <v>0.84782800000000003</v>
       </c>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L70" s="68" t="s">
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L70" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="M70" s="67" t="s">
+      <c r="M70" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N70" s="66"/>
-      <c r="O70" s="66"/>
-      <c r="P70" s="66">
+      <c r="N70" s="64"/>
+      <c r="O70" s="64"/>
+      <c r="P70" s="64">
         <v>15000</v>
       </c>
-      <c r="Q70" s="66">
+      <c r="Q70" s="64">
         <v>2995</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="66">
+      <c r="A71" s="64">
         <v>49</v>
       </c>
-      <c r="B71" s="66">
+      <c r="B71" s="64">
         <v>122403055</v>
       </c>
-      <c r="C71" s="67" t="s">
+      <c r="C71" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="D71" s="66">
+      <c r="D71" s="64">
         <v>39199099</v>
       </c>
-      <c r="E71" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F71" s="66">
+      <c r="E71" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="64">
         <v>0.73666666666666702</v>
       </c>
-      <c r="G71" s="66">
+      <c r="G71" s="64">
         <v>8840.0000000000036</v>
       </c>
-      <c r="H71" s="66">
+      <c r="H71" s="64">
         <v>4.4920000000000003E-3</v>
       </c>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L71" s="68" t="s">
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L71" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="M71" s="67" t="s">
+      <c r="M71" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N71" s="66"/>
-      <c r="O71" s="66"/>
-      <c r="P71" s="66">
+      <c r="N71" s="64"/>
+      <c r="O71" s="64"/>
+      <c r="P71" s="64">
         <v>20000</v>
       </c>
-      <c r="Q71" s="66">
+      <c r="Q71" s="64">
         <v>11160</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A72" s="66">
+      <c r="A72" s="64">
         <v>50</v>
       </c>
-      <c r="B72" s="66">
+      <c r="B72" s="64">
         <v>140100099</v>
       </c>
-      <c r="C72" s="67" t="s">
+      <c r="C72" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="D72" s="66">
+      <c r="D72" s="64">
         <v>85332100</v>
       </c>
-      <c r="E72" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="66">
+      <c r="E72" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="64">
         <v>2.9583333333333299</v>
       </c>
-      <c r="G72" s="66">
+      <c r="G72" s="64">
         <v>35499.999999999956</v>
       </c>
-      <c r="H72" s="66">
+      <c r="H72" s="64">
         <v>3.2499999999999999E-4</v>
       </c>
-      <c r="I72" s="66"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L72" s="68" t="s">
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L72" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="M72" s="67" t="s">
+      <c r="M72" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="N72" s="66"/>
-      <c r="O72" s="66"/>
-      <c r="P72" s="66">
+      <c r="N72" s="64"/>
+      <c r="O72" s="64"/>
+      <c r="P72" s="64">
         <v>40000</v>
       </c>
-      <c r="Q72" s="66">
+      <c r="Q72" s="64">
         <v>4500</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="66">
+      <c r="A73" s="64">
         <v>51</v>
       </c>
-      <c r="B73" s="66">
+      <c r="B73" s="64">
         <v>140100100</v>
       </c>
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="D73" s="66">
+      <c r="D73" s="64">
         <v>85332100</v>
       </c>
-      <c r="E73" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F73" s="66">
+      <c r="E73" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="64">
         <v>27.000384083333302</v>
       </c>
-      <c r="G73" s="66">
+      <c r="G73" s="64">
         <v>324004.60899999959</v>
       </c>
-      <c r="H73" s="66">
+      <c r="H73" s="64">
         <v>4.0499999999999998E-4</v>
       </c>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L73" s="68" t="s">
+      <c r="I73" s="64"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L73" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="M73" s="67" t="s">
+      <c r="M73" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="N73" s="66"/>
-      <c r="O73" s="66"/>
-      <c r="P73" s="66">
+      <c r="N73" s="64"/>
+      <c r="O73" s="64"/>
+      <c r="P73" s="64">
         <v>410000</v>
       </c>
-      <c r="Q73" s="66">
+      <c r="Q73" s="64">
         <v>85995</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="66">
+      <c r="A74" s="64">
         <v>52</v>
       </c>
-      <c r="B74" s="66">
+      <c r="B74" s="64">
         <v>140100104</v>
       </c>
-      <c r="C74" s="67" t="s">
+      <c r="C74" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="D74" s="66">
+      <c r="D74" s="64">
         <v>85332100</v>
       </c>
-      <c r="E74" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F74" s="66">
+      <c r="E74" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" s="64">
         <v>2</v>
       </c>
-      <c r="G74" s="66">
+      <c r="G74" s="64">
         <v>24000</v>
       </c>
-      <c r="H74" s="66">
+      <c r="H74" s="64">
         <v>3.79E-4</v>
       </c>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66"/>
-      <c r="K74" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L74" s="68" t="s">
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L74" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="M74" s="67" t="s">
+      <c r="M74" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="N74" s="66"/>
-      <c r="O74" s="66"/>
-      <c r="P74" s="66">
+      <c r="N74" s="64"/>
+      <c r="O74" s="64"/>
+      <c r="P74" s="64">
         <v>55000</v>
       </c>
-      <c r="Q74" s="66">
+      <c r="Q74" s="64">
         <v>31000</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="66">
+      <c r="A75" s="64">
         <v>53</v>
       </c>
-      <c r="B75" s="66">
+      <c r="B75" s="64">
         <v>140100107</v>
       </c>
-      <c r="C75" s="67" t="s">
+      <c r="C75" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="D75" s="66">
+      <c r="D75" s="64">
         <v>85332100</v>
       </c>
-      <c r="E75" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F75" s="66">
+      <c r="E75" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="64">
         <v>1.0007692500000001</v>
       </c>
-      <c r="G75" s="66">
+      <c r="G75" s="64">
         <v>12009.231</v>
       </c>
-      <c r="H75" s="66">
+      <c r="H75" s="64">
         <v>3.97E-4</v>
       </c>
-      <c r="I75" s="66"/>
-      <c r="J75" s="66"/>
-      <c r="K75" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L75" s="68" t="s">
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L75" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="M75" s="67" t="s">
+      <c r="M75" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="N75" s="66"/>
-      <c r="O75" s="66"/>
-      <c r="P75" s="66">
+      <c r="N75" s="64"/>
+      <c r="O75" s="64"/>
+      <c r="P75" s="64">
         <v>145000</v>
       </c>
-      <c r="Q75" s="66">
+      <c r="Q75" s="64">
         <v>132991</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="66">
+      <c r="A76" s="64">
         <v>54</v>
       </c>
-      <c r="B76" s="66">
+      <c r="B76" s="64">
         <v>140100112</v>
       </c>
-      <c r="C76" s="67" t="s">
+      <c r="C76" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="D76" s="66">
+      <c r="D76" s="64">
         <v>85332100</v>
       </c>
-      <c r="E76" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F76" s="66">
+      <c r="E76" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="64">
         <v>6</v>
       </c>
-      <c r="G76" s="66">
+      <c r="G76" s="64">
         <v>72000</v>
       </c>
-      <c r="H76" s="66">
+      <c r="H76" s="64">
         <v>5.0100000000000003E-4</v>
       </c>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L76" s="68" t="s">
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L76" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="M76" s="67" t="s">
+      <c r="M76" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="N76" s="66"/>
-      <c r="O76" s="66"/>
-      <c r="P76" s="66">
+      <c r="N76" s="64"/>
+      <c r="O76" s="64"/>
+      <c r="P76" s="64">
         <v>85000</v>
       </c>
-      <c r="Q76" s="66">
+      <c r="Q76" s="64">
         <v>13000</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="66">
+      <c r="A77" s="64">
         <v>55</v>
       </c>
-      <c r="B77" s="66">
+      <c r="B77" s="64">
         <v>140100125</v>
       </c>
-      <c r="C77" s="67" t="s">
+      <c r="C77" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="D77" s="66">
+      <c r="D77" s="64">
         <v>85332100</v>
       </c>
-      <c r="E77" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="66">
+      <c r="E77" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="64">
         <v>2</v>
       </c>
-      <c r="G77" s="66">
+      <c r="G77" s="64">
         <v>24000</v>
       </c>
-      <c r="H77" s="66">
+      <c r="H77" s="64">
         <v>4.4799999999999999E-4</v>
       </c>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L77" s="68" t="s">
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L77" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="M77" s="67" t="s">
+      <c r="M77" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="N77" s="66"/>
-      <c r="O77" s="66"/>
-      <c r="P77" s="66">
+      <c r="N77" s="64"/>
+      <c r="O77" s="64"/>
+      <c r="P77" s="64">
         <v>35000</v>
       </c>
-      <c r="Q77" s="66">
+      <c r="Q77" s="64">
         <v>11000</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="66">
+      <c r="A78" s="64">
         <v>56</v>
       </c>
-      <c r="B78" s="66">
+      <c r="B78" s="64">
         <v>140200097</v>
       </c>
-      <c r="C78" s="67" t="s">
+      <c r="C78" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="D78" s="66">
+      <c r="D78" s="64">
         <v>85322400</v>
       </c>
-      <c r="E78" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" s="66">
+      <c r="E78" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" s="64">
         <v>3</v>
       </c>
-      <c r="G78" s="66">
+      <c r="G78" s="64">
         <v>36000</v>
       </c>
-      <c r="H78" s="66">
+      <c r="H78" s="64">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I78" s="66"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L78" s="68" t="s">
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L78" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="M78" s="69">
+      <c r="M78" s="67">
         <v>44720</v>
       </c>
-      <c r="N78" s="66"/>
-      <c r="O78" s="66"/>
-      <c r="P78" s="66">
+      <c r="N78" s="64"/>
+      <c r="O78" s="64"/>
+      <c r="P78" s="64">
         <v>36000</v>
       </c>
-      <c r="Q78" s="66">
+      <c r="Q78" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="66">
+      <c r="A79" s="64">
         <v>57</v>
       </c>
-      <c r="B79" s="66">
+      <c r="B79" s="64">
         <v>140200149</v>
       </c>
-      <c r="C79" s="67" t="s">
+      <c r="C79" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="D79" s="66">
+      <c r="D79" s="64">
         <v>85322400</v>
       </c>
-      <c r="E79" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F79" s="66">
+      <c r="E79" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" s="64">
         <v>1</v>
       </c>
-      <c r="G79" s="66">
+      <c r="G79" s="64">
         <v>12000</v>
       </c>
-      <c r="H79" s="66">
+      <c r="H79" s="64">
         <v>2.1288999999999999E-2</v>
       </c>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L79" s="68" t="s">
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L79" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="M79" s="69">
+      <c r="M79" s="67">
         <v>44565</v>
       </c>
-      <c r="N79" s="66"/>
-      <c r="O79" s="66"/>
-      <c r="P79" s="66">
+      <c r="N79" s="64"/>
+      <c r="O79" s="64"/>
+      <c r="P79" s="64">
         <v>52000</v>
       </c>
-      <c r="Q79" s="66">
+      <c r="Q79" s="64">
         <v>40000</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="66">
+      <c r="A80" s="64">
         <v>58</v>
       </c>
-      <c r="B80" s="66">
+      <c r="B80" s="64">
         <v>140200207</v>
       </c>
-      <c r="C80" s="67" t="s">
+      <c r="C80" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="D80" s="66">
+      <c r="D80" s="64">
         <v>85322400</v>
       </c>
-      <c r="E80" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F80" s="66">
+      <c r="E80" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="64">
         <v>3</v>
       </c>
-      <c r="G80" s="66">
+      <c r="G80" s="64">
         <v>36000</v>
       </c>
-      <c r="H80" s="66">
+      <c r="H80" s="64">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="I80" s="66"/>
-      <c r="J80" s="66"/>
-      <c r="K80" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L80" s="68" t="s">
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L80" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="M80" s="67" t="s">
+      <c r="M80" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="N80" s="66"/>
-      <c r="O80" s="66"/>
-      <c r="P80" s="66">
+      <c r="N80" s="64"/>
+      <c r="O80" s="64"/>
+      <c r="P80" s="64">
         <v>60000</v>
       </c>
-      <c r="Q80" s="66">
+      <c r="Q80" s="64">
         <v>24000</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="66">
+      <c r="A81" s="64">
         <v>59</v>
       </c>
-      <c r="B81" s="66">
+      <c r="B81" s="64">
         <v>140300057</v>
       </c>
-      <c r="C81" s="67" t="s">
+      <c r="C81" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="66">
+      <c r="D81" s="64">
         <v>85411000</v>
       </c>
-      <c r="E81" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" s="66">
+      <c r="E81" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="64">
         <v>11.002693166666701</v>
       </c>
-      <c r="G81" s="66">
+      <c r="G81" s="64">
         <v>132032.31800000041</v>
       </c>
-      <c r="H81" s="66">
+      <c r="H81" s="64">
         <v>6.0699999999999999E-3</v>
       </c>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L81" s="68" t="s">
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L81" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="M81" s="67" t="s">
+      <c r="M81" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N81" s="66"/>
-      <c r="O81" s="66"/>
-      <c r="P81" s="66">
+      <c r="N81" s="64"/>
+      <c r="O81" s="64"/>
+      <c r="P81" s="64">
         <v>156000</v>
       </c>
-      <c r="Q81" s="66">
+      <c r="Q81" s="64">
         <v>23968</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="66">
+      <c r="A82" s="64">
         <v>60</v>
       </c>
-      <c r="B82" s="66">
+      <c r="B82" s="64">
         <v>140300227</v>
       </c>
-      <c r="C82" s="67" t="s">
+      <c r="C82" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="66">
+      <c r="D82" s="64">
         <v>85411000</v>
       </c>
-      <c r="E82" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" s="66">
+      <c r="E82" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="64">
         <v>0.91791666666666705</v>
       </c>
-      <c r="G82" s="66">
+      <c r="G82" s="64">
         <v>11015.000000000005</v>
       </c>
-      <c r="H82" s="66">
+      <c r="H82" s="64">
         <v>7.4809999999999998E-3</v>
       </c>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L82" s="68" t="s">
+      <c r="I82" s="64"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L82" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="M82" s="67" t="s">
+      <c r="M82" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="N82" s="66"/>
-      <c r="O82" s="66"/>
-      <c r="P82" s="66">
+      <c r="N82" s="64"/>
+      <c r="O82" s="64"/>
+      <c r="P82" s="64">
         <v>27000</v>
       </c>
-      <c r="Q82" s="66">
+      <c r="Q82" s="64">
         <v>15985</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="66">
+      <c r="A83" s="64">
         <v>61</v>
       </c>
-      <c r="B83" s="66">
+      <c r="B83" s="64">
         <v>140300242</v>
       </c>
-      <c r="C83" s="67" t="s">
+      <c r="C83" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="D83" s="66">
+      <c r="D83" s="64">
         <v>85411000</v>
       </c>
-      <c r="E83" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F83" s="66">
+      <c r="E83" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" s="64">
         <v>3.0350000000000001</v>
       </c>
-      <c r="G83" s="66">
+      <c r="G83" s="64">
         <v>36420</v>
       </c>
-      <c r="H83" s="66">
+      <c r="H83" s="64">
         <v>6.5700000000000003E-3</v>
       </c>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L83" s="68" t="s">
+      <c r="I83" s="64"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L83" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="M83" s="67" t="s">
+      <c r="M83" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N83" s="66"/>
-      <c r="O83" s="66"/>
-      <c r="P83" s="66">
+      <c r="N83" s="64"/>
+      <c r="O83" s="64"/>
+      <c r="P83" s="64">
         <v>42000</v>
       </c>
-      <c r="Q83" s="66">
+      <c r="Q83" s="64">
         <v>5580</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="66">
+      <c r="A84" s="64">
         <v>62</v>
       </c>
-      <c r="B84" s="66">
+      <c r="B84" s="64">
         <v>140300470</v>
       </c>
-      <c r="C84" s="67" t="s">
+      <c r="C84" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="66">
+      <c r="D84" s="64">
         <v>85411000</v>
       </c>
-      <c r="E84" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" s="66">
+      <c r="E84" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="64">
         <v>1</v>
       </c>
-      <c r="G84" s="66">
+      <c r="G84" s="64">
         <v>12000</v>
       </c>
-      <c r="H84" s="66">
+      <c r="H84" s="64">
         <v>2.2429000000000001E-2</v>
       </c>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L84" s="68" t="s">
+      <c r="I84" s="64"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L84" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="M84" s="67" t="s">
+      <c r="M84" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N84" s="66"/>
-      <c r="O84" s="66"/>
-      <c r="P84" s="66">
+      <c r="N84" s="64"/>
+      <c r="O84" s="64"/>
+      <c r="P84" s="64">
         <v>15000</v>
       </c>
-      <c r="Q84" s="66">
+      <c r="Q84" s="64">
         <v>3000</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="66">
+      <c r="A85" s="64">
         <v>63</v>
       </c>
-      <c r="B85" s="66">
+      <c r="B85" s="64">
         <v>150100047</v>
       </c>
-      <c r="C85" s="67" t="s">
+      <c r="C85" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="D85" s="66">
+      <c r="D85" s="64">
         <v>85332100</v>
       </c>
-      <c r="E85" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F85" s="66">
+      <c r="E85" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" s="64">
         <v>3</v>
       </c>
-      <c r="G85" s="66">
+      <c r="G85" s="64">
         <v>36000</v>
       </c>
-      <c r="H85" s="66">
+      <c r="H85" s="64">
         <v>6.8800000000000003E-4</v>
       </c>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L85" s="68" t="s">
+      <c r="I85" s="64"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L85" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="M85" s="67" t="s">
+      <c r="M85" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="N85" s="66"/>
-      <c r="O85" s="66"/>
-      <c r="P85" s="66">
+      <c r="N85" s="64"/>
+      <c r="O85" s="64"/>
+      <c r="P85" s="64">
         <v>40000</v>
       </c>
-      <c r="Q85" s="66">
+      <c r="Q85" s="64">
         <v>4000</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="66">
+      <c r="A86" s="64">
         <v>64</v>
       </c>
-      <c r="B86" s="66">
+      <c r="B86" s="64">
         <v>150100078</v>
       </c>
-      <c r="C86" s="67" t="s">
+      <c r="C86" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="D86" s="66">
+      <c r="D86" s="64">
         <v>85332100</v>
       </c>
-      <c r="E86" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F86" s="66">
+      <c r="E86" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" s="64">
         <v>2.00038408333333</v>
       </c>
-      <c r="G86" s="66">
+      <c r="G86" s="64">
         <v>24004.60899999996</v>
       </c>
-      <c r="H86" s="66">
+      <c r="H86" s="64">
         <v>5.6999999999999998E-4</v>
       </c>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L86" s="68" t="s">
+      <c r="I86" s="64"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L86" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="M86" s="67" t="s">
+      <c r="M86" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="N86" s="66"/>
-      <c r="O86" s="66"/>
-      <c r="P86" s="66">
+      <c r="N86" s="64"/>
+      <c r="O86" s="64"/>
+      <c r="P86" s="64">
         <v>25000</v>
       </c>
-      <c r="Q86" s="66">
+      <c r="Q86" s="64">
         <v>995</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="66">
+      <c r="A87" s="64">
         <v>65</v>
       </c>
-      <c r="B87" s="66">
+      <c r="B87" s="64">
         <v>150100245</v>
       </c>
-      <c r="C87" s="67" t="s">
+      <c r="C87" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="D87" s="66">
+      <c r="D87" s="64">
         <v>85332100</v>
       </c>
-      <c r="E87" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F87" s="66">
+      <c r="E87" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" s="64">
         <v>2</v>
       </c>
-      <c r="G87" s="66">
+      <c r="G87" s="64">
         <v>24000</v>
       </c>
-      <c r="H87" s="66">
+      <c r="H87" s="64">
         <v>6.0300000000000002E-4</v>
       </c>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L87" s="68" t="s">
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L87" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M87" s="67" t="s">
+      <c r="M87" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="N87" s="66"/>
-      <c r="O87" s="66"/>
-      <c r="P87" s="66">
+      <c r="N87" s="64"/>
+      <c r="O87" s="64"/>
+      <c r="P87" s="64">
         <v>50000</v>
       </c>
-      <c r="Q87" s="66">
+      <c r="Q87" s="64">
         <v>26000</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="66">
+      <c r="A88" s="64">
         <v>66</v>
       </c>
-      <c r="B88" s="66">
+      <c r="B88" s="64">
         <v>150100317</v>
       </c>
-      <c r="C88" s="67" t="s">
+      <c r="C88" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="D88" s="66">
+      <c r="D88" s="64">
         <v>85332100</v>
       </c>
-      <c r="E88" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F88" s="66">
+      <c r="E88" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="64">
         <v>1</v>
       </c>
-      <c r="G88" s="66">
+      <c r="G88" s="64">
         <v>12000</v>
       </c>
-      <c r="H88" s="66">
+      <c r="H88" s="64">
         <v>5.9800000000000001E-4</v>
       </c>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66"/>
-      <c r="K88" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L88" s="68" t="s">
+      <c r="I88" s="64"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L88" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="M88" s="67" t="s">
+      <c r="M88" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N88" s="66"/>
-      <c r="O88" s="66"/>
-      <c r="P88" s="66">
+      <c r="N88" s="64"/>
+      <c r="O88" s="64"/>
+      <c r="P88" s="64">
         <v>15000</v>
       </c>
-      <c r="Q88" s="66">
+      <c r="Q88" s="64">
         <v>3000</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="66">
+      <c r="A89" s="64">
         <v>67</v>
       </c>
-      <c r="B89" s="66">
+      <c r="B89" s="64">
         <v>150101110</v>
       </c>
-      <c r="C89" s="67" t="s">
+      <c r="C89" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="D89" s="66">
+      <c r="D89" s="64">
         <v>85332100</v>
       </c>
-      <c r="E89" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F89" s="66">
+      <c r="E89" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" s="64">
         <v>12</v>
       </c>
-      <c r="G89" s="66">
+      <c r="G89" s="64">
         <v>144000</v>
       </c>
-      <c r="H89" s="66">
+      <c r="H89" s="64">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L89" s="68" t="s">
+      <c r="I89" s="64"/>
+      <c r="J89" s="64"/>
+      <c r="K89" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L89" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="M89" s="67" t="s">
+      <c r="M89" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="N89" s="66"/>
-      <c r="O89" s="66"/>
-      <c r="P89" s="66">
+      <c r="N89" s="64"/>
+      <c r="O89" s="64"/>
+      <c r="P89" s="64">
         <v>250000</v>
       </c>
-      <c r="Q89" s="66">
+      <c r="Q89" s="64">
         <v>106000</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="66">
+      <c r="A90" s="64">
         <v>68</v>
       </c>
-      <c r="B90" s="66">
+      <c r="B90" s="64">
         <v>150101631</v>
       </c>
-      <c r="C90" s="67" t="s">
+      <c r="C90" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="D90" s="66">
+      <c r="D90" s="64">
         <v>85332100</v>
       </c>
-      <c r="E90" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F90" s="66">
+      <c r="E90" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" s="64">
         <v>1</v>
       </c>
-      <c r="G90" s="66">
+      <c r="G90" s="64">
         <v>12000</v>
       </c>
-      <c r="H90" s="66">
+      <c r="H90" s="64">
         <v>8.4800000000000001E-4</v>
       </c>
-      <c r="I90" s="66"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L90" s="68" t="s">
+      <c r="I90" s="64"/>
+      <c r="J90" s="64"/>
+      <c r="K90" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L90" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="M90" s="67" t="s">
+      <c r="M90" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N90" s="66"/>
-      <c r="O90" s="66"/>
-      <c r="P90" s="66">
+      <c r="N90" s="64"/>
+      <c r="O90" s="64"/>
+      <c r="P90" s="64">
         <v>15000</v>
       </c>
-      <c r="Q90" s="66">
+      <c r="Q90" s="64">
         <v>3000</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="66">
+      <c r="A91" s="64">
         <v>69</v>
       </c>
-      <c r="B91" s="66">
+      <c r="B91" s="64">
         <v>150102446</v>
       </c>
-      <c r="C91" s="67" t="s">
+      <c r="C91" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="D91" s="66">
+      <c r="D91" s="64">
         <v>85332100</v>
       </c>
-      <c r="E91" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F91" s="66">
+      <c r="E91" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F91" s="64">
         <v>6.0653840833333303</v>
       </c>
-      <c r="G91" s="66">
+      <c r="G91" s="64">
         <v>72784.608999999968</v>
       </c>
-      <c r="H91" s="66">
+      <c r="H91" s="64">
         <v>4.5800000000000002E-4</v>
       </c>
-      <c r="I91" s="66"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L91" s="68" t="s">
+      <c r="I91" s="64"/>
+      <c r="J91" s="64"/>
+      <c r="K91" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L91" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="M91" s="67" t="s">
+      <c r="M91" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="N91" s="66"/>
-      <c r="O91" s="66"/>
-      <c r="P91" s="66">
+      <c r="N91" s="64"/>
+      <c r="O91" s="64"/>
+      <c r="P91" s="64">
         <v>155000</v>
       </c>
-      <c r="Q91" s="66">
+      <c r="Q91" s="64">
         <v>82215</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="66">
+      <c r="A92" s="64">
         <v>70</v>
       </c>
-      <c r="B92" s="66">
+      <c r="B92" s="64">
         <v>150102451</v>
       </c>
-      <c r="C92" s="67" t="s">
+      <c r="C92" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="D92" s="66">
+      <c r="D92" s="64">
         <v>85332100</v>
       </c>
-      <c r="E92" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F92" s="66">
+      <c r="E92" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="64">
         <v>1</v>
       </c>
-      <c r="G92" s="66">
+      <c r="G92" s="64">
         <v>12000</v>
       </c>
-      <c r="H92" s="66">
+      <c r="H92" s="64">
         <v>4.7699999999999999E-4</v>
       </c>
-      <c r="I92" s="66"/>
-      <c r="J92" s="66"/>
-      <c r="K92" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L92" s="68" t="s">
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L92" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="M92" s="67" t="s">
+      <c r="M92" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="N92" s="66"/>
-      <c r="O92" s="66"/>
-      <c r="P92" s="66">
+      <c r="N92" s="64"/>
+      <c r="O92" s="64"/>
+      <c r="P92" s="64">
         <v>15000</v>
       </c>
-      <c r="Q92" s="66">
+      <c r="Q92" s="64">
         <v>3000</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="66">
+      <c r="A93" s="64">
         <v>71</v>
       </c>
-      <c r="B93" s="66">
+      <c r="B93" s="64">
         <v>150102534</v>
       </c>
-      <c r="C93" s="67" t="s">
+      <c r="C93" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="D93" s="66">
+      <c r="D93" s="64">
         <v>85332100</v>
       </c>
-      <c r="E93" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F93" s="66">
+      <c r="E93" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F93" s="64">
         <v>3.00038408333333</v>
       </c>
-      <c r="G93" s="66">
+      <c r="G93" s="64">
         <v>36004.60899999996</v>
       </c>
-      <c r="H93" s="66">
+      <c r="H93" s="64">
         <v>4.5199999999999998E-4</v>
       </c>
-      <c r="I93" s="66"/>
-      <c r="J93" s="66"/>
-      <c r="K93" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L93" s="68" t="s">
+      <c r="I93" s="64"/>
+      <c r="J93" s="64"/>
+      <c r="K93" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L93" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="M93" s="67" t="s">
+      <c r="M93" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="N93" s="66"/>
-      <c r="O93" s="66"/>
-      <c r="P93" s="66">
+      <c r="N93" s="64"/>
+      <c r="O93" s="64"/>
+      <c r="P93" s="64">
         <v>75000</v>
       </c>
-      <c r="Q93" s="66">
+      <c r="Q93" s="64">
         <v>38995</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="66">
+      <c r="A94" s="64">
         <v>72</v>
       </c>
-      <c r="B94" s="66">
+      <c r="B94" s="64">
         <v>150102585</v>
       </c>
-      <c r="C94" s="67" t="s">
+      <c r="C94" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="D94" s="66">
+      <c r="D94" s="64">
         <v>85332100</v>
       </c>
-      <c r="E94" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F94" s="66">
+      <c r="E94" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F94" s="64">
         <v>1</v>
       </c>
-      <c r="G94" s="66">
+      <c r="G94" s="64">
         <v>12000</v>
       </c>
-      <c r="H94" s="66">
+      <c r="H94" s="64">
         <v>3.0699999999999998E-4</v>
       </c>
-      <c r="I94" s="66"/>
-      <c r="J94" s="66"/>
-      <c r="K94" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L94" s="68" t="s">
+      <c r="I94" s="64"/>
+      <c r="J94" s="64"/>
+      <c r="K94" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L94" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="M94" s="67" t="s">
+      <c r="M94" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N94" s="66"/>
-      <c r="O94" s="66"/>
-      <c r="P94" s="66">
+      <c r="N94" s="64"/>
+      <c r="O94" s="64"/>
+      <c r="P94" s="64">
         <v>15000</v>
       </c>
-      <c r="Q94" s="66">
+      <c r="Q94" s="64">
         <v>3000</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="66">
+      <c r="A95" s="64">
         <v>73</v>
       </c>
-      <c r="B95" s="66">
+      <c r="B95" s="64">
         <v>150104284</v>
       </c>
-      <c r="C95" s="67" t="s">
+      <c r="C95" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="D95" s="66">
+      <c r="D95" s="64">
         <v>85332100</v>
       </c>
-      <c r="E95" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F95" s="66">
+      <c r="E95" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F95" s="64">
         <v>1</v>
       </c>
-      <c r="G95" s="66">
+      <c r="G95" s="64">
         <v>12000</v>
       </c>
-      <c r="H95" s="66">
+      <c r="H95" s="64">
         <v>2.8400000000000002E-4</v>
       </c>
-      <c r="I95" s="66"/>
-      <c r="J95" s="66"/>
-      <c r="K95" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L95" s="68" t="s">
+      <c r="I95" s="64"/>
+      <c r="J95" s="64"/>
+      <c r="K95" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L95" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="M95" s="67" t="s">
+      <c r="M95" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="N95" s="66"/>
-      <c r="O95" s="66"/>
-      <c r="P95" s="66">
+      <c r="N95" s="64"/>
+      <c r="O95" s="64"/>
+      <c r="P95" s="64">
         <v>30000</v>
       </c>
-      <c r="Q95" s="66">
+      <c r="Q95" s="64">
         <v>18000</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="66">
+      <c r="A96" s="64">
         <v>74</v>
       </c>
-      <c r="B96" s="66">
+      <c r="B96" s="64">
         <v>150104317</v>
       </c>
-      <c r="C96" s="67" t="s">
+      <c r="C96" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="D96" s="66">
+      <c r="D96" s="64">
         <v>85332100</v>
       </c>
-      <c r="E96" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F96" s="66">
+      <c r="E96" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" s="64">
         <v>1</v>
       </c>
-      <c r="G96" s="66">
+      <c r="G96" s="64">
         <v>12000</v>
       </c>
-      <c r="H96" s="66">
+      <c r="H96" s="64">
         <v>4.5199999999999998E-4</v>
       </c>
-      <c r="I96" s="66"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L96" s="68" t="s">
+      <c r="I96" s="64"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L96" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="M96" s="67" t="s">
+      <c r="M96" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="N96" s="66"/>
-      <c r="O96" s="66"/>
-      <c r="P96" s="66">
+      <c r="N96" s="64"/>
+      <c r="O96" s="64"/>
+      <c r="P96" s="64">
         <v>45000</v>
       </c>
-      <c r="Q96" s="66">
+      <c r="Q96" s="64">
         <v>33000</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="66">
+      <c r="A97" s="64">
         <v>75</v>
       </c>
-      <c r="B97" s="66">
+      <c r="B97" s="64">
         <v>150104318</v>
       </c>
-      <c r="C97" s="67" t="s">
+      <c r="C97" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="D97" s="66">
+      <c r="D97" s="64">
         <v>85332100</v>
       </c>
-      <c r="E97" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F97" s="66">
+      <c r="E97" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="64">
         <v>5</v>
       </c>
-      <c r="G97" s="66">
+      <c r="G97" s="64">
         <v>60000</v>
       </c>
-      <c r="H97" s="66">
+      <c r="H97" s="64">
         <v>3.2600000000000001E-4</v>
       </c>
-      <c r="I97" s="66"/>
-      <c r="J97" s="66"/>
-      <c r="K97" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L97" s="68" t="s">
+      <c r="I97" s="64"/>
+      <c r="J97" s="64"/>
+      <c r="K97" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L97" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="M97" s="67" t="s">
+      <c r="M97" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="N97" s="66"/>
-      <c r="O97" s="66"/>
-      <c r="P97" s="66">
+      <c r="N97" s="64"/>
+      <c r="O97" s="64"/>
+      <c r="P97" s="64">
         <v>135000</v>
       </c>
-      <c r="Q97" s="66">
+      <c r="Q97" s="64">
         <v>75000</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="66">
+      <c r="A98" s="64">
         <v>76</v>
       </c>
-      <c r="B98" s="66">
+      <c r="B98" s="64">
         <v>150104598</v>
       </c>
-      <c r="C98" s="67" t="s">
+      <c r="C98" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="D98" s="66">
+      <c r="D98" s="64">
         <v>85332100</v>
       </c>
-      <c r="E98" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F98" s="66">
+      <c r="E98" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" s="64">
         <v>1</v>
       </c>
-      <c r="G98" s="66">
+      <c r="G98" s="64">
         <v>12000</v>
       </c>
-      <c r="H98" s="66">
+      <c r="H98" s="64">
         <v>5.1000000000000004E-4</v>
       </c>
-      <c r="I98" s="66"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L98" s="68" t="s">
+      <c r="I98" s="64"/>
+      <c r="J98" s="64"/>
+      <c r="K98" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L98" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="M98" s="67" t="s">
+      <c r="M98" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N98" s="66"/>
-      <c r="O98" s="66"/>
-      <c r="P98" s="66">
+      <c r="N98" s="64"/>
+      <c r="O98" s="64"/>
+      <c r="P98" s="64">
         <v>20000</v>
       </c>
-      <c r="Q98" s="66">
+      <c r="Q98" s="64">
         <v>8000</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="66">
+      <c r="A99" s="64">
         <v>77</v>
       </c>
-      <c r="B99" s="66">
+      <c r="B99" s="64">
         <v>150104988</v>
       </c>
-      <c r="C99" s="67" t="s">
+      <c r="C99" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="66">
+      <c r="D99" s="64">
         <v>85332100</v>
       </c>
-      <c r="E99" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F99" s="66">
+      <c r="E99" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99" s="64">
         <v>1.00038408333333</v>
       </c>
-      <c r="G99" s="66">
+      <c r="G99" s="64">
         <v>12004.60899999996</v>
       </c>
-      <c r="H99" s="66">
+      <c r="H99" s="64">
         <v>0.20686199999999999</v>
       </c>
-      <c r="I99" s="66"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L99" s="68" t="s">
+      <c r="I99" s="64"/>
+      <c r="J99" s="64"/>
+      <c r="K99" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L99" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="M99" s="67" t="s">
+      <c r="M99" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N99" s="66"/>
-      <c r="O99" s="66"/>
-      <c r="P99" s="66">
+      <c r="N99" s="64"/>
+      <c r="O99" s="64"/>
+      <c r="P99" s="64">
         <v>16000</v>
       </c>
-      <c r="Q99" s="66">
+      <c r="Q99" s="64">
         <v>3995</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="66">
+      <c r="A100" s="64">
         <v>78</v>
       </c>
-      <c r="B100" s="66">
+      <c r="B100" s="64">
         <v>150200240</v>
       </c>
-      <c r="C100" s="67" t="s">
+      <c r="C100" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="D100" s="66">
+      <c r="D100" s="64">
         <v>85322400</v>
       </c>
-      <c r="E100" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F100" s="66">
+      <c r="E100" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100" s="64">
         <v>1</v>
       </c>
-      <c r="G100" s="66">
+      <c r="G100" s="64">
         <v>12000</v>
       </c>
-      <c r="H100" s="66">
+      <c r="H100" s="64">
         <v>1.1789999999999999E-3</v>
       </c>
-      <c r="I100" s="66"/>
-      <c r="J100" s="66"/>
-      <c r="K100" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L100" s="68" t="s">
+      <c r="I100" s="64"/>
+      <c r="J100" s="64"/>
+      <c r="K100" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L100" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="M100" s="69">
+      <c r="M100" s="67">
         <v>44655</v>
       </c>
-      <c r="N100" s="66"/>
-      <c r="O100" s="66"/>
-      <c r="P100" s="66">
+      <c r="N100" s="64"/>
+      <c r="O100" s="64"/>
+      <c r="P100" s="64">
         <v>12000</v>
       </c>
-      <c r="Q100" s="66">
+      <c r="Q100" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="66">
+      <c r="A101" s="64">
         <v>79</v>
       </c>
-      <c r="B101" s="66">
+      <c r="B101" s="64">
         <v>150200380</v>
       </c>
-      <c r="C101" s="67" t="s">
+      <c r="C101" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="D101" s="66">
+      <c r="D101" s="64">
         <v>85322400</v>
       </c>
-      <c r="E101" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F101" s="66">
+      <c r="E101" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F101" s="64">
         <v>1.8636235833333299</v>
       </c>
-      <c r="G101" s="66">
+      <c r="G101" s="64">
         <v>22363.48299999996</v>
       </c>
-      <c r="H101" s="66">
+      <c r="H101" s="64">
         <v>2.415E-3</v>
       </c>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L101" s="68" t="s">
+      <c r="I101" s="64"/>
+      <c r="J101" s="64"/>
+      <c r="K101" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L101" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="M101" s="67" t="s">
+      <c r="M101" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="N101" s="66"/>
-      <c r="O101" s="66"/>
-      <c r="P101" s="66">
+      <c r="N101" s="64"/>
+      <c r="O101" s="64"/>
+      <c r="P101" s="64">
         <v>24000</v>
       </c>
-      <c r="Q101" s="66">
+      <c r="Q101" s="64">
         <v>1637</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="66">
+      <c r="A102" s="64">
         <v>80</v>
       </c>
-      <c r="B102" s="66">
+      <c r="B102" s="64">
         <v>150201747</v>
       </c>
-      <c r="C102" s="67" t="s">
+      <c r="C102" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="D102" s="66">
+      <c r="D102" s="64">
         <v>85322400</v>
       </c>
-      <c r="E102" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F102" s="66">
+      <c r="E102" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" s="64">
         <v>1</v>
       </c>
-      <c r="G102" s="66">
+      <c r="G102" s="64">
         <v>12000</v>
       </c>
-      <c r="H102" s="66">
+      <c r="H102" s="64">
         <v>2.3807999999999999E-2</v>
       </c>
-      <c r="I102" s="66"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L102" s="68" t="s">
+      <c r="I102" s="64"/>
+      <c r="J102" s="64"/>
+      <c r="K102" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L102" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="M102" s="67" t="s">
+      <c r="M102" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N102" s="66"/>
-      <c r="O102" s="66"/>
-      <c r="P102" s="66">
+      <c r="N102" s="64"/>
+      <c r="O102" s="64"/>
+      <c r="P102" s="64">
         <v>16000</v>
       </c>
-      <c r="Q102" s="66">
+      <c r="Q102" s="64">
         <v>4000</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="66">
+      <c r="A103" s="64">
         <v>81</v>
       </c>
-      <c r="B103" s="66">
+      <c r="B103" s="64">
         <v>150202177</v>
       </c>
-      <c r="C103" s="67" t="s">
+      <c r="C103" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="D103" s="66">
+      <c r="D103" s="64">
         <v>85322200</v>
       </c>
-      <c r="E103" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F103" s="66">
+      <c r="E103" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F103" s="64">
         <v>2</v>
       </c>
-      <c r="G103" s="66">
+      <c r="G103" s="64">
         <v>24000</v>
       </c>
-      <c r="H103" s="66">
-        <v>2.9569999999999999E-2</v>
-      </c>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L103" s="68" t="s">
+      <c r="H103" s="64">
+        <v>2.9595E-2</v>
+      </c>
+      <c r="I103" s="64"/>
+      <c r="J103" s="64"/>
+      <c r="K103" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L103" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="M103" s="67" t="s">
+      <c r="M103" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="N103" s="66"/>
-      <c r="O103" s="66"/>
-      <c r="P103" s="66">
+      <c r="N103" s="64"/>
+      <c r="O103" s="64"/>
+      <c r="P103" s="64">
         <v>38498</v>
       </c>
-      <c r="Q103" s="66">
+      <c r="Q103" s="64">
         <v>14498</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="66">
+      <c r="A104" s="64">
         <v>82</v>
       </c>
-      <c r="B104" s="66">
+      <c r="B104" s="64">
         <v>150202202</v>
       </c>
-      <c r="C104" s="67" t="s">
+      <c r="C104" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="D104" s="66">
+      <c r="D104" s="64">
         <v>85322200</v>
       </c>
-      <c r="E104" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F104" s="66">
+      <c r="E104" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F104" s="64">
         <v>1</v>
       </c>
-      <c r="G104" s="66">
+      <c r="G104" s="64">
         <v>12000</v>
       </c>
-      <c r="H104" s="66">
+      <c r="H104" s="64">
         <v>8.7760000000000008E-3</v>
       </c>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L104" s="68" t="s">
+      <c r="I104" s="64"/>
+      <c r="J104" s="64"/>
+      <c r="K104" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L104" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="M104" s="67" t="s">
+      <c r="M104" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N104" s="66"/>
-      <c r="O104" s="66"/>
-      <c r="P104" s="66">
+      <c r="N104" s="64"/>
+      <c r="O104" s="64"/>
+      <c r="P104" s="64">
         <v>14000</v>
       </c>
-      <c r="Q104" s="66">
+      <c r="Q104" s="64">
         <v>2000</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="66">
+      <c r="A105" s="64">
         <v>83</v>
       </c>
-      <c r="B105" s="66">
+      <c r="B105" s="64">
         <v>150202765</v>
       </c>
-      <c r="C105" s="67" t="s">
+      <c r="C105" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="D105" s="66">
+      <c r="D105" s="64">
         <v>85322400</v>
       </c>
-      <c r="E105" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F105" s="66">
+      <c r="E105" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F105" s="64">
         <v>12.13076925</v>
       </c>
-      <c r="G105" s="66">
+      <c r="G105" s="64">
         <v>145569.231</v>
       </c>
-      <c r="H105" s="66">
+      <c r="H105" s="64">
         <v>1.16E-3</v>
       </c>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L105" s="68" t="s">
+      <c r="I105" s="64"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L105" s="66" t="s">
         <v>308</v>
       </c>
-      <c r="M105" s="67" t="s">
+      <c r="M105" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="N105" s="66"/>
-      <c r="O105" s="66"/>
-      <c r="P105" s="66">
+      <c r="N105" s="64"/>
+      <c r="O105" s="64"/>
+      <c r="P105" s="64">
         <v>1048000</v>
       </c>
-      <c r="Q105" s="66">
+      <c r="Q105" s="64">
         <v>902431</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="66">
+      <c r="A106" s="64">
         <v>84</v>
       </c>
-      <c r="B106" s="66">
+      <c r="B106" s="64">
         <v>150202766</v>
       </c>
-      <c r="C106" s="67" t="s">
+      <c r="C106" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="D106" s="66">
+      <c r="D106" s="64">
         <v>85322400</v>
       </c>
-      <c r="E106" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F106" s="66">
+      <c r="E106" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F106" s="64">
         <v>6</v>
       </c>
-      <c r="G106" s="66">
+      <c r="G106" s="64">
         <v>72000</v>
       </c>
-      <c r="H106" s="66">
+      <c r="H106" s="64">
         <v>1.4630000000000001E-3</v>
       </c>
-      <c r="I106" s="66"/>
-      <c r="J106" s="66"/>
-      <c r="K106" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L106" s="68" t="s">
+      <c r="I106" s="64"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L106" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="M106" s="67" t="s">
+      <c r="M106" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="N106" s="66"/>
-      <c r="O106" s="66"/>
-      <c r="P106" s="66">
+      <c r="N106" s="64"/>
+      <c r="O106" s="64"/>
+      <c r="P106" s="64">
         <v>104000</v>
       </c>
-      <c r="Q106" s="66">
+      <c r="Q106" s="64">
         <v>32000</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="66">
+      <c r="A107" s="64">
         <v>85</v>
       </c>
-      <c r="B107" s="66">
+      <c r="B107" s="64">
         <v>150203096</v>
       </c>
-      <c r="C107" s="67" t="s">
+      <c r="C107" s="65" t="s">
         <v>313</v>
       </c>
-      <c r="D107" s="66">
+      <c r="D107" s="64">
         <v>85322400</v>
       </c>
-      <c r="E107" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F107" s="66">
+      <c r="E107" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F107" s="64">
         <v>6.7366666666666699</v>
       </c>
-      <c r="G107" s="66">
+      <c r="G107" s="64">
         <v>80840.000000000044</v>
       </c>
-      <c r="H107" s="66">
+      <c r="H107" s="64">
         <v>1.181E-3</v>
       </c>
-      <c r="I107" s="66"/>
-      <c r="J107" s="66"/>
-      <c r="K107" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L107" s="68" t="s">
+      <c r="I107" s="64"/>
+      <c r="J107" s="64"/>
+      <c r="K107" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L107" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="M107" s="67" t="s">
+      <c r="M107" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="N107" s="66"/>
-      <c r="O107" s="66"/>
-      <c r="P107" s="66">
+      <c r="N107" s="64"/>
+      <c r="O107" s="64"/>
+      <c r="P107" s="64">
         <v>92000</v>
       </c>
-      <c r="Q107" s="66">
+      <c r="Q107" s="64">
         <v>11160</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="66">
+      <c r="A108" s="64">
         <v>86</v>
       </c>
-      <c r="B108" s="66">
+      <c r="B108" s="64">
         <v>150203267</v>
       </c>
-      <c r="C108" s="67" t="s">
+      <c r="C108" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="D108" s="66">
+      <c r="D108" s="64">
         <v>85322400</v>
       </c>
-      <c r="E108" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F108" s="66">
+      <c r="E108" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108" s="64">
         <v>4</v>
       </c>
-      <c r="G108" s="66">
+      <c r="G108" s="64">
         <v>48000</v>
       </c>
-      <c r="H108" s="66">
+      <c r="H108" s="64">
         <v>1.06E-2</v>
       </c>
-      <c r="I108" s="66"/>
-      <c r="J108" s="66"/>
-      <c r="K108" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L108" s="68" t="s">
+      <c r="I108" s="64"/>
+      <c r="J108" s="64"/>
+      <c r="K108" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L108" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="M108" s="67" t="s">
+      <c r="M108" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="N108" s="66"/>
-      <c r="O108" s="66"/>
-      <c r="P108" s="66">
+      <c r="N108" s="64"/>
+      <c r="O108" s="64"/>
+      <c r="P108" s="64">
         <v>118000</v>
       </c>
-      <c r="Q108" s="66">
+      <c r="Q108" s="64">
         <v>70000</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="66">
+      <c r="A109" s="64">
         <v>87</v>
       </c>
-      <c r="B109" s="66">
+      <c r="B109" s="64">
         <v>150301042</v>
       </c>
-      <c r="C109" s="67" t="s">
+      <c r="C109" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="D109" s="66">
+      <c r="D109" s="64">
         <v>85411000</v>
       </c>
-      <c r="E109" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F109" s="66">
+      <c r="E109" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F109" s="64">
         <v>1</v>
       </c>
-      <c r="G109" s="66">
+      <c r="G109" s="64">
         <v>12000</v>
       </c>
-      <c r="H109" s="66">
+      <c r="H109" s="64">
         <v>1.0189999999999999E-2</v>
       </c>
-      <c r="I109" s="66"/>
-      <c r="J109" s="66"/>
-      <c r="K109" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L109" s="68" t="s">
+      <c r="I109" s="64"/>
+      <c r="J109" s="64"/>
+      <c r="K109" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L109" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="M109" s="67" t="s">
+      <c r="M109" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N109" s="66"/>
-      <c r="O109" s="66"/>
-      <c r="P109" s="66">
+      <c r="N109" s="64"/>
+      <c r="O109" s="64"/>
+      <c r="P109" s="64">
         <v>15000</v>
       </c>
-      <c r="Q109" s="66">
+      <c r="Q109" s="64">
         <v>3000</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="66">
+      <c r="A110" s="64">
         <v>88</v>
       </c>
-      <c r="B110" s="66">
+      <c r="B110" s="64">
         <v>150400039</v>
       </c>
-      <c r="C110" s="67" t="s">
+      <c r="C110" s="65" t="s">
         <v>320</v>
       </c>
-      <c r="D110" s="66">
+      <c r="D110" s="64">
         <v>85412100</v>
       </c>
-      <c r="E110" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F110" s="66">
+      <c r="E110" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F110" s="64">
         <v>3</v>
       </c>
-      <c r="G110" s="66">
+      <c r="G110" s="64">
         <v>36000</v>
       </c>
-      <c r="H110" s="66">
+      <c r="H110" s="64">
         <v>6.8069999999999997E-3</v>
       </c>
-      <c r="I110" s="66"/>
-      <c r="J110" s="66"/>
-      <c r="K110" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L110" s="68" t="s">
+      <c r="I110" s="64"/>
+      <c r="J110" s="64"/>
+      <c r="K110" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L110" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="M110" s="67" t="s">
+      <c r="M110" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="N110" s="66"/>
-      <c r="O110" s="66"/>
-      <c r="P110" s="66">
+      <c r="N110" s="64"/>
+      <c r="O110" s="64"/>
+      <c r="P110" s="64">
         <v>75000</v>
       </c>
-      <c r="Q110" s="66">
+      <c r="Q110" s="64">
         <v>39000</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="66">
+      <c r="A111" s="64">
         <v>89</v>
       </c>
-      <c r="B111" s="66">
+      <c r="B111" s="64">
         <v>150400673</v>
       </c>
-      <c r="C111" s="67" t="s">
+      <c r="C111" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="D111" s="66">
+      <c r="D111" s="64">
         <v>85412100</v>
       </c>
-      <c r="E111" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F111" s="66">
+      <c r="E111" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F111" s="64">
         <v>1</v>
       </c>
-      <c r="G111" s="66">
+      <c r="G111" s="64">
         <v>12000</v>
       </c>
-      <c r="H111" s="66">
+      <c r="H111" s="64">
         <v>5.9259999999999998E-3</v>
       </c>
-      <c r="I111" s="66"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L111" s="68" t="s">
+      <c r="I111" s="64"/>
+      <c r="J111" s="64"/>
+      <c r="K111" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L111" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="M111" s="67" t="s">
+      <c r="M111" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="N111" s="66"/>
-      <c r="O111" s="66"/>
-      <c r="P111" s="66">
+      <c r="N111" s="64"/>
+      <c r="O111" s="64"/>
+      <c r="P111" s="64">
         <v>84000</v>
       </c>
-      <c r="Q111" s="66">
+      <c r="Q111" s="64">
         <v>72000</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="66">
+      <c r="A112" s="64">
         <v>90</v>
       </c>
-      <c r="B112" s="66">
+      <c r="B112" s="64">
         <v>150400746</v>
       </c>
-      <c r="C112" s="67" t="s">
+      <c r="C112" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="D112" s="66">
+      <c r="D112" s="64">
         <v>85412100</v>
       </c>
-      <c r="E112" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F112" s="66">
+      <c r="E112" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F112" s="64">
         <v>0.93374999999999997</v>
       </c>
-      <c r="G112" s="66">
+      <c r="G112" s="64">
         <v>11205</v>
       </c>
-      <c r="H112" s="66">
+      <c r="H112" s="64">
         <v>4.8265000000000002E-2</v>
       </c>
-      <c r="I112" s="66"/>
-      <c r="J112" s="66"/>
-      <c r="K112" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L112" s="68" t="s">
+      <c r="I112" s="64"/>
+      <c r="J112" s="64"/>
+      <c r="K112" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L112" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="M112" s="67" t="s">
+      <c r="M112" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N112" s="66"/>
-      <c r="O112" s="66"/>
-      <c r="P112" s="66">
+      <c r="N112" s="64"/>
+      <c r="O112" s="64"/>
+      <c r="P112" s="64">
         <v>14000</v>
       </c>
-      <c r="Q112" s="66">
+      <c r="Q112" s="64">
         <v>2795</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="66">
+      <c r="A113" s="64">
         <v>91</v>
       </c>
-      <c r="B113" s="66">
+      <c r="B113" s="64">
         <v>150401106</v>
       </c>
-      <c r="C113" s="67" t="s">
+      <c r="C113" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="D113" s="66">
+      <c r="D113" s="64">
         <v>85412100</v>
       </c>
-      <c r="E113" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F113" s="66">
+      <c r="E113" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F113" s="64">
         <v>1.8512500000000001</v>
       </c>
-      <c r="G113" s="66">
+      <c r="G113" s="64">
         <v>22215</v>
       </c>
-      <c r="H113" s="66">
+      <c r="H113" s="64">
         <v>5.2119999999999996E-3</v>
       </c>
-      <c r="I113" s="66"/>
-      <c r="J113" s="66"/>
-      <c r="K113" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L113" s="68" t="s">
+      <c r="I113" s="64"/>
+      <c r="J113" s="64"/>
+      <c r="K113" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L113" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="M113" s="67" t="s">
+      <c r="M113" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N113" s="66"/>
-      <c r="O113" s="66"/>
-      <c r="P113" s="66">
+      <c r="N113" s="64"/>
+      <c r="O113" s="64"/>
+      <c r="P113" s="64">
         <v>26995</v>
       </c>
-      <c r="Q113" s="66">
+      <c r="Q113" s="64">
         <v>4780</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="66">
+      <c r="A114" s="64">
         <v>92</v>
       </c>
-      <c r="B114" s="66">
+      <c r="B114" s="64">
         <v>150401133</v>
       </c>
-      <c r="C114" s="67" t="s">
+      <c r="C114" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="D114" s="66">
+      <c r="D114" s="64">
         <v>85412900</v>
       </c>
-      <c r="E114" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F114" s="66">
+      <c r="E114" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F114" s="64">
         <v>1</v>
       </c>
-      <c r="G114" s="66">
+      <c r="G114" s="64">
         <v>12000</v>
       </c>
-      <c r="H114" s="66">
+      <c r="H114" s="64">
         <v>4.4359999999999997E-2</v>
       </c>
-      <c r="I114" s="66"/>
-      <c r="J114" s="66"/>
-      <c r="K114" s="67" t="s">
+      <c r="I114" s="64"/>
+      <c r="J114" s="64"/>
+      <c r="K114" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="L114" s="68" t="s">
+      <c r="L114" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="M114" s="67" t="s">
+      <c r="M114" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="N114" s="66"/>
-      <c r="O114" s="66"/>
-      <c r="P114" s="66">
+      <c r="N114" s="64"/>
+      <c r="O114" s="64"/>
+      <c r="P114" s="64">
         <v>18000</v>
       </c>
-      <c r="Q114" s="66">
+      <c r="Q114" s="64">
         <v>6000</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="66">
+      <c r="A115" s="64">
         <v>93</v>
       </c>
-      <c r="B115" s="66">
+      <c r="B115" s="64">
         <v>151000066</v>
       </c>
-      <c r="C115" s="67" t="s">
+      <c r="C115" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="D115" s="66">
+      <c r="D115" s="64">
         <v>85423100</v>
       </c>
-      <c r="E115" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F115" s="66">
+      <c r="E115" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F115" s="64">
         <v>3.00038408333333</v>
       </c>
-      <c r="G115" s="66">
+      <c r="G115" s="64">
         <v>36004.60899999996</v>
       </c>
-      <c r="H115" s="66">
+      <c r="H115" s="64">
         <v>0.32936100000000001</v>
       </c>
-      <c r="I115" s="66"/>
-      <c r="J115" s="66"/>
-      <c r="K115" s="67" t="s">
+      <c r="I115" s="64"/>
+      <c r="J115" s="64"/>
+      <c r="K115" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="L115" s="68" t="s">
+      <c r="L115" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="M115" s="67" t="s">
+      <c r="M115" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="N115" s="66"/>
-      <c r="O115" s="66"/>
-      <c r="P115" s="66">
+      <c r="N115" s="64"/>
+      <c r="O115" s="64"/>
+      <c r="P115" s="64">
         <v>65000</v>
       </c>
-      <c r="Q115" s="66">
+      <c r="Q115" s="64">
         <v>28995</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="66">
+      <c r="A116" s="64">
         <v>94</v>
       </c>
-      <c r="B116" s="66">
+      <c r="B116" s="64">
         <v>151000171</v>
       </c>
-      <c r="C116" s="67" t="s">
+      <c r="C116" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="D116" s="66">
+      <c r="D116" s="64">
         <v>85423300</v>
       </c>
-      <c r="E116" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F116" s="66">
+      <c r="E116" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F116" s="64">
         <v>1.0153840833333301</v>
       </c>
-      <c r="G116" s="66">
+      <c r="G116" s="64">
         <v>12184.60899999996</v>
       </c>
-      <c r="H116" s="66">
+      <c r="H116" s="64">
         <v>9.3775999999999998E-2</v>
       </c>
-      <c r="I116" s="66"/>
-      <c r="J116" s="66"/>
-      <c r="K116" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L116" s="68" t="s">
+      <c r="I116" s="64"/>
+      <c r="J116" s="64"/>
+      <c r="K116" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L116" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="M116" s="67" t="s">
+      <c r="M116" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N116" s="66"/>
-      <c r="O116" s="66"/>
-      <c r="P116" s="66">
+      <c r="N116" s="64"/>
+      <c r="O116" s="64"/>
+      <c r="P116" s="64">
         <v>15000</v>
       </c>
-      <c r="Q116" s="66">
+      <c r="Q116" s="64">
         <v>2815</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="66">
+      <c r="A117" s="64">
         <v>95</v>
       </c>
-      <c r="B117" s="66">
+      <c r="B117" s="64">
         <v>151000432</v>
       </c>
-      <c r="C117" s="67" t="s">
+      <c r="C117" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="D117" s="66">
+      <c r="D117" s="64">
         <v>85423100</v>
       </c>
-      <c r="E117" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F117" s="66">
+      <c r="E117" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F117" s="64">
         <v>0.75008333333333299</v>
       </c>
-      <c r="G117" s="66">
+      <c r="G117" s="64">
         <v>9000.9999999999964</v>
       </c>
-      <c r="H117" s="66">
+      <c r="H117" s="64">
         <v>5.8855999999999999E-2</v>
       </c>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L117" s="68" t="s">
+      <c r="I117" s="64"/>
+      <c r="J117" s="64"/>
+      <c r="K117" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L117" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="M117" s="67" t="s">
+      <c r="M117" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="N117" s="66"/>
-      <c r="O117" s="66"/>
-      <c r="P117" s="66">
+      <c r="N117" s="64"/>
+      <c r="O117" s="64"/>
+      <c r="P117" s="64">
         <v>14993</v>
       </c>
-      <c r="Q117" s="66">
+      <c r="Q117" s="64">
         <v>5992</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="66">
+      <c r="A118" s="64">
         <v>96</v>
       </c>
-      <c r="B118" s="66">
+      <c r="B118" s="64">
         <v>151000721</v>
       </c>
-      <c r="C118" s="67" t="s">
+      <c r="C118" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="D118" s="66">
+      <c r="D118" s="64">
         <v>85423100</v>
       </c>
-      <c r="E118" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F118" s="66">
+      <c r="E118" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F118" s="64">
         <v>1</v>
       </c>
-      <c r="G118" s="66">
+      <c r="G118" s="64">
         <v>12000</v>
       </c>
-      <c r="H118" s="66">
+      <c r="H118" s="64">
         <v>0.21599599999999999</v>
       </c>
-      <c r="I118" s="66"/>
-      <c r="J118" s="66"/>
-      <c r="K118" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L118" s="68" t="s">
+      <c r="I118" s="64"/>
+      <c r="J118" s="64"/>
+      <c r="K118" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L118" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="M118" s="67" t="s">
+      <c r="M118" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N118" s="66"/>
-      <c r="O118" s="66"/>
-      <c r="P118" s="66">
+      <c r="N118" s="64"/>
+      <c r="O118" s="64"/>
+      <c r="P118" s="64">
         <v>16000</v>
       </c>
-      <c r="Q118" s="66">
+      <c r="Q118" s="64">
         <v>4000</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="66">
+      <c r="A119" s="64">
         <v>97</v>
       </c>
-      <c r="B119" s="66">
+      <c r="B119" s="64">
         <v>152000016</v>
       </c>
-      <c r="C119" s="67" t="s">
+      <c r="C119" s="65" t="s">
         <v>339</v>
       </c>
-      <c r="D119" s="66">
+      <c r="D119" s="64">
         <v>85366932</v>
       </c>
-      <c r="E119" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F119" s="66">
+      <c r="E119" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119" s="64">
         <v>0.83333333333333304</v>
       </c>
-      <c r="G119" s="66">
+      <c r="G119" s="64">
         <v>9999.9999999999964</v>
       </c>
-      <c r="H119" s="66">
+      <c r="H119" s="64">
         <v>6.9389999999999999E-3</v>
       </c>
-      <c r="I119" s="66"/>
-      <c r="J119" s="66"/>
-      <c r="K119" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L119" s="68" t="s">
+      <c r="I119" s="64"/>
+      <c r="J119" s="64"/>
+      <c r="K119" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L119" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="M119" s="67" t="s">
+      <c r="M119" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N119" s="66"/>
-      <c r="O119" s="66"/>
-      <c r="P119" s="66">
+      <c r="N119" s="64"/>
+      <c r="O119" s="64"/>
+      <c r="P119" s="64">
         <v>10000</v>
       </c>
-      <c r="Q119" s="66">
+      <c r="Q119" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="66">
+      <c r="A120" s="64">
         <v>98</v>
       </c>
-      <c r="B120" s="66">
+      <c r="B120" s="64">
         <v>152000823</v>
       </c>
-      <c r="C120" s="67" t="s">
+      <c r="C120" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="D120" s="66">
+      <c r="D120" s="64">
         <v>73181510</v>
       </c>
-      <c r="E120" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F120" s="66">
+      <c r="E120" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F120" s="64">
         <v>3</v>
       </c>
-      <c r="G120" s="66">
+      <c r="G120" s="64">
         <v>36000</v>
       </c>
-      <c r="H120" s="66">
-        <v>8.0699999999999999E-4</v>
-      </c>
-      <c r="I120" s="66"/>
-      <c r="J120" s="66"/>
-      <c r="K120" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L120" s="68" t="s">
+      <c r="H120" s="64">
+        <v>8.0900000000000004E-4</v>
+      </c>
+      <c r="I120" s="64"/>
+      <c r="J120" s="64"/>
+      <c r="K120" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L120" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="M120" s="67" t="s">
+      <c r="M120" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="N120" s="66"/>
-      <c r="O120" s="66"/>
-      <c r="P120" s="66">
+      <c r="N120" s="64"/>
+      <c r="O120" s="64"/>
+      <c r="P120" s="64">
         <v>59000</v>
       </c>
-      <c r="Q120" s="66">
+      <c r="Q120" s="64">
         <v>23000</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="66">
+      <c r="A121" s="64">
         <v>99</v>
       </c>
-      <c r="B121" s="66" t="s">
+      <c r="B121" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="C121" s="67" t="s">
+      <c r="C121" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="D121" s="66">
+      <c r="D121" s="64">
         <v>85444297</v>
       </c>
-      <c r="E121" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F121" s="66">
+      <c r="E121" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F121" s="64">
         <v>1</v>
       </c>
-      <c r="G121" s="66">
+      <c r="G121" s="64">
         <v>12000</v>
       </c>
-      <c r="H121" s="66">
+      <c r="H121" s="64">
         <v>2.6764E-2</v>
       </c>
-      <c r="I121" s="66"/>
-      <c r="J121" s="66"/>
-      <c r="K121" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="L121" s="68" t="s">
+      <c r="I121" s="64"/>
+      <c r="J121" s="64"/>
+      <c r="K121" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L121" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="M121" s="67" t="s">
+      <c r="M121" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="N121" s="66"/>
-      <c r="O121" s="66"/>
-      <c r="P121" s="66">
+      <c r="N121" s="64"/>
+      <c r="O121" s="64"/>
+      <c r="P121" s="64">
         <v>13205</v>
       </c>
-      <c r="Q121" s="66">
+      <c r="Q121" s="64">
         <v>1205</v>
       </c>
     </row>
@@ -7197,8 +7231,7 @@
       <c r="O187" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="L20:L21"/>
+  <mergeCells count="35">
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="O20:O21"/>
@@ -7209,12 +7242,12 @@
     <mergeCell ref="Q17:Q21"/>
     <mergeCell ref="G19:G21"/>
     <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C17:C21"/>
@@ -7222,6 +7255,18 @@
     <mergeCell ref="E17:E21"/>
     <mergeCell ref="F17:F21"/>
     <mergeCell ref="G17:J18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
